--- a/predictions_vs_real.xlsx
+++ b/predictions_vs_real.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -447,7573 +447,7573 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0200907289981842</v>
+        <v>25.3474178314209</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0181931983679533</v>
+        <v>25.92679977416992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02009129151701927</v>
+        <v>25.34443092346191</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01867498457431793</v>
+        <v>25.91869926452637</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02009192481637001</v>
+        <v>25.37749099731445</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01916210353374481</v>
+        <v>25.90920066833496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02009147219359875</v>
+        <v>25.37276268005371</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0193039420992136</v>
+        <v>25.90719985961914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.020095095038414</v>
+        <v>25.36896514892578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01957754790782928</v>
+        <v>25.9015998840332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.02009527571499348</v>
+        <v>25.35510063171387</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01975023187696934</v>
+        <v>25.89859962463379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.02009527571499348</v>
+        <v>25.35510063171387</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01990124210715294</v>
+        <v>25.89559936523438</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.02002448402345181</v>
+        <v>25.29925918579102</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02009025774896145</v>
+        <v>25.89209938049316</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0200321339070797</v>
+        <v>25.34240913391113</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02051553875207901</v>
+        <v>25.88400077819824</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0200299546122551</v>
+        <v>25.46788787841797</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02065596543252468</v>
+        <v>25.88150024414062</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.02009111642837524</v>
+        <v>25.65909576416016</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0208278950303793</v>
+        <v>25.87750053405762</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.02009187452495098</v>
+        <v>25.68025207519531</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02095141261816025</v>
+        <v>25.875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02009187452495098</v>
+        <v>25.68025207519531</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02095999754965305</v>
+        <v>25.8745002746582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.02009187452495098</v>
+        <v>25.68025207519531</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02096548862755299</v>
+        <v>25.8745002746582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02008975669741631</v>
+        <v>25.63722038269043</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02108250744640827</v>
+        <v>25.87190055847168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.02008975669741631</v>
+        <v>25.63722038269043</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02108984068036079</v>
+        <v>25.87190055847168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0200877133756876</v>
+        <v>25.6709041595459</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02112508378922939</v>
+        <v>25.87039947509766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.02017971500754356</v>
+        <v>25.78971672058105</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02115833759307861</v>
+        <v>25.86940002441406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.020175501704216</v>
+        <v>25.80128288269043</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02117592096328735</v>
+        <v>25.86890029907227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.02017267793416977</v>
+        <v>25.80210494995117</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02119076624512672</v>
+        <v>25.86890029907227</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.02017267793416977</v>
+        <v>25.80210494995117</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02120076678693295</v>
+        <v>25.86840057373047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.02017367258667946</v>
+        <v>25.72989082336426</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0211962666362524</v>
+        <v>25.86739921569824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.02017249912023544</v>
+        <v>25.71776008605957</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02119760029017925</v>
+        <v>25.86840057373047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.02018934115767479</v>
+        <v>25.94868850708008</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02122826874256134</v>
+        <v>25.86689949035645</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.02018401026725769</v>
+        <v>25.98917579650879</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0212336853146553</v>
+        <v>25.86639976501465</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.02017367444932461</v>
+        <v>25.87968826293945</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02125042676925659</v>
+        <v>25.86639976501465</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.02014321833848953</v>
+        <v>25.71660614013672</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02129226364195347</v>
+        <v>25.86540031433105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.02014515362679958</v>
+        <v>25.73738479614258</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02129068039357662</v>
+        <v>25.86490058898926</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.02014601230621338</v>
+        <v>25.73791885375977</v>
       </c>
       <c r="B30" t="n">
-        <v>0.021321015432477</v>
+        <v>25.86389923095703</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.02014612220227718</v>
+        <v>25.75085067749023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02131893299520016</v>
+        <v>25.86389923095703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.02014574594795704</v>
+        <v>25.74649047851562</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02132276631891727</v>
+        <v>25.86389923095703</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.02014624327421188</v>
+        <v>25.77909660339355</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02132001519203186</v>
+        <v>25.86389923095703</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.02014740370213985</v>
+        <v>25.74553108215332</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02135110087692738</v>
+        <v>25.86339950561523</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.02014740370213985</v>
+        <v>25.74553108215332</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0213506855070591</v>
+        <v>25.86240005493164</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01989950239658356</v>
+        <v>25.58831024169922</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0213477797806263</v>
+        <v>25.86240005493164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.01989957690238953</v>
+        <v>25.58860969543457</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02134694531559944</v>
+        <v>25.86289978027344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.01989957690238953</v>
+        <v>25.58860969543457</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0213400162756443</v>
+        <v>25.86289978027344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.01989919692277908</v>
+        <v>25.55539321899414</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02135135047137737</v>
+        <v>25.86240005493164</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.01991328969597816</v>
+        <v>25.50571441650391</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02136960253119469</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.0198761411011219</v>
+        <v>25.46737670898438</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02137435227632523</v>
+        <v>25.86190032958984</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.01987037807703018</v>
+        <v>25.27380561828613</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0213672798126936</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.01987037807703018</v>
+        <v>25.27380561828613</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02139110490679741</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.01987037807703018</v>
+        <v>25.27380561828613</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02139835432171822</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.01987037807703018</v>
+        <v>25.27380561828613</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02139410376548767</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.01987116597592831</v>
+        <v>25.25518417358398</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02139560505747795</v>
+        <v>25.86090087890625</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01986776292324066</v>
+        <v>25.23133087158203</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02139768749475479</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.01986776292324066</v>
+        <v>25.23133087158203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02138718776404858</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.01986675709486008</v>
+        <v>25.2296199798584</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02137576974928379</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.01986675895750523</v>
+        <v>25.22962760925293</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02137593738734722</v>
+        <v>25.86090087890625</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01986433565616608</v>
+        <v>25.21309661865234</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02137885428965092</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.0198647677898407</v>
+        <v>25.20838165283203</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02137543633580208</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.01986014842987061</v>
+        <v>25.2281665802002</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0213752705603838</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.01986014656722546</v>
+        <v>25.22816276550293</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02136343531310558</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.0200663935393095</v>
+        <v>25.30587196350098</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02137251943349838</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.02006659843027592</v>
+        <v>25.30593109130859</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02137984149158001</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.02006974816322327</v>
+        <v>25.40199089050293</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02135934121906757</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.0200719777494669</v>
+        <v>25.43332672119141</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02135800756514072</v>
+        <v>25.86039924621582</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.02015845663845539</v>
+        <v>25.75648307800293</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02137475833296776</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.0201567355543375</v>
+        <v>25.69232177734375</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02137158066034317</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.0201567355543375</v>
+        <v>25.69232177734375</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0213695801794529</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.0201567355543375</v>
+        <v>25.69232177734375</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02136574685573578</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.0201567355543375</v>
+        <v>25.69232177734375</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02136166207492352</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.02015771344304085</v>
+        <v>25.70059585571289</v>
       </c>
       <c r="B64" t="n">
-        <v>0.02137340232729912</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02015706896781921</v>
+        <v>25.70449256896973</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02138440310955048</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.01996557228267193</v>
+        <v>25.68012046813965</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0213802233338356</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.01993564516305923</v>
+        <v>25.32655906677246</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02137079648673534</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.01997626386582851</v>
+        <v>25.85024452209473</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02139179594814777</v>
+        <v>25.85840034484863</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.019773343577981</v>
+        <v>25.89670944213867</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02137154527008533</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.01818372681736946</v>
+        <v>24.50009918212891</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02137553505599499</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.01818372681736946</v>
+        <v>24.50009918212891</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02137420140206814</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.01657940074801445</v>
+        <v>25.19554901123047</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02137870155274868</v>
+        <v>25.85840034484863</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.01498385053128004</v>
+        <v>2.425479173660278</v>
       </c>
       <c r="B73" t="n">
-        <v>0.01681176200509071</v>
+        <v>0.1141820028424263</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.01498385053128004</v>
+        <v>2.425479173660278</v>
       </c>
       <c r="B74" t="n">
-        <v>0.01681176200509071</v>
+        <v>0.1141820028424263</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.01498385053128004</v>
+        <v>2.425479173660278</v>
       </c>
       <c r="B75" t="n">
-        <v>0.01681176200509071</v>
+        <v>26.95409965515137</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.01497967913746834</v>
+        <v>2.419156074523926</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01580678857862949</v>
+        <v>25.08270072937012</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.01502395048737526</v>
+        <v>2.430610418319702</v>
       </c>
       <c r="B77" t="n">
-        <v>0.01522982120513916</v>
+        <v>0.2136079967021942</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.01502395048737526</v>
+        <v>2.430610418319702</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01522982120513916</v>
+        <v>0.2136079967021942</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.01505130901932716</v>
+        <v>2.419561862945557</v>
       </c>
       <c r="B79" t="n">
-        <v>0.01481869164854288</v>
+        <v>0.1926120072603226</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.01504920981824398</v>
+        <v>2.424099206924438</v>
       </c>
       <c r="B80" t="n">
-        <v>0.01481869164854288</v>
+        <v>0.1926120072603226</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.01504921354353428</v>
+        <v>2.42409348487854</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01481869164854288</v>
+        <v>26.95560073852539</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.01507076155394316</v>
+        <v>2.413999795913696</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01452187728136778</v>
+        <v>0.2105869948863983</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.014863689430058</v>
+        <v>1.172996044158936</v>
       </c>
       <c r="B83" t="n">
-        <v>0.01398541126400232</v>
+        <v>0.178955003619194</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.01466936711221933</v>
+        <v>1.170870542526245</v>
       </c>
       <c r="B84" t="n">
-        <v>0.01398541126400232</v>
+        <v>26.99130058288574</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.01486198604106903</v>
+        <v>1.183785438537598</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01389117259532213</v>
+        <v>25.0802001953125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.01486198604106903</v>
+        <v>1.183785438537598</v>
       </c>
       <c r="B86" t="n">
-        <v>0.01389117259532213</v>
+        <v>25.0802001953125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.01486916653811932</v>
+        <v>1.183417201042175</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01385414134711027</v>
+        <v>26.95560073852539</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.01484353840351105</v>
+        <v>1.190882086753845</v>
       </c>
       <c r="B88" t="n">
-        <v>0.01385414134711027</v>
+        <v>26.95560073852539</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.01484349835664034</v>
+        <v>1.190258502960205</v>
       </c>
       <c r="B89" t="n">
-        <v>0.01382206752896309</v>
+        <v>0.22325100004673</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.01486809644848108</v>
+        <v>1.195805788040161</v>
       </c>
       <c r="B90" t="n">
-        <v>0.01378690823912621</v>
+        <v>0.2234800010919571</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.01451917923986912</v>
+        <v>1.487449407577515</v>
       </c>
       <c r="B91" t="n">
-        <v>0.01376685779541731</v>
+        <v>0.2257539927959442</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.01594888418912888</v>
+        <v>20.57720375061035</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01375190448015928</v>
+        <v>0.1797939985990524</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.01459213625639677</v>
+        <v>18.54760932922363</v>
       </c>
       <c r="B93" t="n">
-        <v>0.01373477652668953</v>
+        <v>26.99130058288574</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.01495986524969339</v>
+        <v>3.717016696929932</v>
       </c>
       <c r="B94" t="n">
-        <v>0.01372475083917379</v>
+        <v>0.2283329963684082</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.01495984010398388</v>
+        <v>3.716811895370483</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01372475083917379</v>
+        <v>0.2283329963684082</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.01495984010398388</v>
+        <v>3.716811895370483</v>
       </c>
       <c r="B96" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.08119964599609</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.01505565922707319</v>
+        <v>3.59246039390564</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0137207405641675</v>
+        <v>26.95560073852539</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.01504750456660986</v>
+        <v>3.389998435974121</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0137207405641675</v>
+        <v>0.2248380035161972</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.01509893219918013</v>
+        <v>3.408953189849854</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0137156629934907</v>
+        <v>0.2253720015287399</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.01512212119996548</v>
+        <v>3.350753307342529</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0137156629934907</v>
+        <v>25.07920074462891</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.01491437293589115</v>
+        <v>3.147080659866333</v>
       </c>
       <c r="B101" t="n">
-        <v>0.0137156629934907</v>
+        <v>0.224151998758316</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.01487712375819683</v>
+        <v>5.459390640258789</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01370563544332981</v>
+        <v>0.2240750044584274</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.01505736354738474</v>
+        <v>10.71181583404541</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01370563544332981</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.01506907865405083</v>
+        <v>16.15659713745117</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01369360275566578</v>
+        <v>0.2256769984960556</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.01501503214240074</v>
+        <v>11.82167148590088</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01369360275566578</v>
+        <v>0.2256769984960556</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.01674149744212627</v>
+        <v>6.943679332733154</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01369360275566578</v>
+        <v>26.95509910583496</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.01434651669114828</v>
+        <v>1.259112238883972</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01369761396199465</v>
+        <v>0.228180006146431</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.01434651669114828</v>
+        <v>1.259112238883972</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01369761396199465</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.01451149117201567</v>
+        <v>2.12227725982666</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01370255928486586</v>
+        <v>0.225601002573967</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.01451977901160717</v>
+        <v>2.121051073074341</v>
       </c>
       <c r="B110" t="n">
-        <v>0.0136996190994978</v>
+        <v>25.08169937133789</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.01456201169639826</v>
+        <v>2.133275747299194</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01369252987205982</v>
+        <v>0.2249149978160858</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.01457136124372482</v>
+        <v>2.126956939697266</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01369252987205982</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.01451776456087828</v>
+        <v>2.093927621841431</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01369560789316893</v>
+        <v>0.2240750044584274</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.01450669392943382</v>
+        <v>2.088131904602051</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01369560789316893</v>
+        <v>26.95560073852539</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.01548141054809093</v>
+        <v>1.560562610626221</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01370255928486586</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.01530843134969473</v>
+        <v>1.187281012535095</v>
       </c>
       <c r="B116" t="n">
-        <v>0.01369654200971127</v>
+        <v>0.224151998758316</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.01556837186217308</v>
+        <v>1.581647872924805</v>
       </c>
       <c r="B117" t="n">
-        <v>0.01369654200971127</v>
+        <v>26.95509910583496</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.01541971229016781</v>
+        <v>1.572661161422729</v>
       </c>
       <c r="B118" t="n">
-        <v>0.01370857749134302</v>
+        <v>0.225601002573967</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.01541971229016781</v>
+        <v>1.572661161422729</v>
       </c>
       <c r="B119" t="n">
-        <v>0.01370857749134302</v>
+        <v>0.225601002573967</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.01468367502093315</v>
+        <v>1.308926820755005</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01370857749134302</v>
+        <v>0.225601002573967</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.01468367502093315</v>
+        <v>1.308926820755005</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01370857749134302</v>
+        <v>25.08219909667969</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.01472096052020788</v>
+        <v>1.307283878326416</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01370349526405334</v>
+        <v>26.95509910583496</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.01472122501581907</v>
+        <v>1.307137012481689</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01369654200971127</v>
+        <v>26.99889945983887</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.01472662389278412</v>
+        <v>1.30704653263092</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01369546912610531</v>
+        <v>0.1664430052042007</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.01459519378840923</v>
+        <v>1.307836055755615</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01371152047067881</v>
+        <v>0.2269590049982071</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.01461637951433659</v>
+        <v>1.308768749237061</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01371152047067881</v>
+        <v>25.08219909667969</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.01461637951433659</v>
+        <v>1.308768749237061</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01369546912610531</v>
+        <v>0.225830003619194</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.01461637951433659</v>
+        <v>1.308768749237061</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01369546912610531</v>
+        <v>0.225830003619194</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.01454613730311394</v>
+        <v>1.159952402114868</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01368543785065413</v>
+        <v>25.08169937133789</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.01513189915567636</v>
+        <v>1.144137501716614</v>
       </c>
       <c r="B130" t="n">
-        <v>0.01370242424309254</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.01494578551501036</v>
+        <v>1.137694597244263</v>
       </c>
       <c r="B131" t="n">
-        <v>0.01370242424309254</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.0149657754227519</v>
+        <v>1.40112566947937</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0136974761262536</v>
+        <v>0.2271119952201843</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.01765105687081814</v>
+        <v>25.87224006652832</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0136974761262536</v>
+        <v>25.08219909667969</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.01934527233242989</v>
+        <v>22.18839454650879</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01370148826390505</v>
+        <v>0.2274170070886612</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.02010845579206944</v>
+        <v>25.35612869262695</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01370148826390505</v>
+        <v>26.95509910583496</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.02010845579206944</v>
+        <v>25.35612869262695</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0157915260642767</v>
+        <v>25.95649909973145</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.02010844461619854</v>
+        <v>25.35604476928711</v>
       </c>
       <c r="B137" t="n">
-        <v>0.01649338379502296</v>
+        <v>25.94490051269531</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.02010839246213436</v>
+        <v>25.39880180358887</v>
       </c>
       <c r="B138" t="n">
-        <v>0.01926646940410137</v>
+        <v>25.8976001739502</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.02010898850858212</v>
+        <v>25.41079902648926</v>
       </c>
       <c r="B139" t="n">
-        <v>0.01955623179674149</v>
+        <v>25.89310073852539</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.02010898850858212</v>
+        <v>25.41079902648926</v>
       </c>
       <c r="B140" t="n">
-        <v>0.01960265263915062</v>
+        <v>25.89159965515137</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.01985904946923256</v>
+        <v>25.31725883483887</v>
       </c>
       <c r="B141" t="n">
-        <v>0.01995999738574028</v>
+        <v>25.88549995422363</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.01982258632779121</v>
+        <v>25.13616752624512</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02033168077468872</v>
+        <v>25.87800025939941</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.01991047523915768</v>
+        <v>25.21453285217285</v>
       </c>
       <c r="B143" t="n">
-        <v>0.02054527215659618</v>
+        <v>25.8745002746582</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.02000927180051804</v>
+        <v>25.42052459716797</v>
       </c>
       <c r="B144" t="n">
-        <v>0.02066444419324398</v>
+        <v>25.87299919128418</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.02000927180051804</v>
+        <v>25.42052459716797</v>
       </c>
       <c r="B145" t="n">
-        <v>0.02070794627070427</v>
+        <v>25.87190055847168</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.02000947669148445</v>
+        <v>25.44660758972168</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02090170420706272</v>
+        <v>25.86790084838867</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.02001051045954227</v>
+        <v>25.4443302154541</v>
       </c>
       <c r="B147" t="n">
-        <v>0.02094603143632412</v>
+        <v>25.86739921569824</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.02000892534852028</v>
+        <v>25.42537689208984</v>
       </c>
       <c r="B148" t="n">
-        <v>0.02101411670446396</v>
+        <v>25.86590003967285</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.0200110487639904</v>
+        <v>25.44182014465332</v>
       </c>
       <c r="B149" t="n">
-        <v>0.02102761715650558</v>
+        <v>25.86540031433105</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.02000829763710499</v>
+        <v>25.42741012573242</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02107395231723785</v>
+        <v>25.86490058898926</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.02001203969120979</v>
+        <v>25.45969009399414</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02109486982226372</v>
+        <v>25.86440086364746</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.02001023851335049</v>
+        <v>25.46038627624512</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02115219458937645</v>
+        <v>25.86289978027344</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.0200112983584404</v>
+        <v>25.4623908996582</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02116136252880096</v>
+        <v>25.86240005493164</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.02001570351421833</v>
+        <v>25.667236328125</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02124502137303352</v>
+        <v>25.86090087890625</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.01993481442332268</v>
+        <v>25.44044494628906</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02128752134740353</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.01993481442332268</v>
+        <v>25.44044494628906</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02129652164876461</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.01992780156433582</v>
+        <v>25.4090518951416</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02130293846130371</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.01992013864219189</v>
+        <v>25.37130928039551</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02129259333014488</v>
+        <v>25.85890007019043</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.01992152631282806</v>
+        <v>25.38767433166504</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02130243927240372</v>
+        <v>25.85840034484863</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.01992152631282806</v>
+        <v>25.38767433166504</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0213221050798893</v>
+        <v>25.85840034484863</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.01992035284638405</v>
+        <v>25.39774131774902</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02133052237331867</v>
+        <v>25.8577995300293</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.01992035284638405</v>
+        <v>25.39775466918945</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02134492807090282</v>
+        <v>25.8577995300293</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.01973548717796803</v>
+        <v>25.34189796447754</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02135642804205418</v>
+        <v>25.8568000793457</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.01973613724112511</v>
+        <v>25.34251403808594</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02136267721652985</v>
+        <v>25.8568000793457</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.01971904747188091</v>
+        <v>25.28166198730469</v>
       </c>
       <c r="B165" t="n">
-        <v>0.02135884389281273</v>
+        <v>25.8568000793457</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.01975472457706928</v>
+        <v>25.23187828063965</v>
       </c>
       <c r="B166" t="n">
-        <v>0.02135059423744678</v>
+        <v>25.8572998046875</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.01975944638252258</v>
+        <v>25.22051239013672</v>
       </c>
       <c r="B167" t="n">
-        <v>0.02135276049375534</v>
+        <v>25.8568000793457</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.01975944638252258</v>
+        <v>25.22051239013672</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02136151120066643</v>
+        <v>25.8568000793457</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.01969737187027931</v>
+        <v>25.29537010192871</v>
       </c>
       <c r="B169" t="n">
-        <v>0.02137108333408833</v>
+        <v>25.85630035400391</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.01970492303371429</v>
+        <v>25.32250213623047</v>
       </c>
       <c r="B170" t="n">
-        <v>0.02136325091123581</v>
+        <v>25.85580062866211</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.01970826089382172</v>
+        <v>25.33307838439941</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0213613323867321</v>
+        <v>25.85630035400391</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.01970508694648743</v>
+        <v>25.3342170715332</v>
       </c>
       <c r="B172" t="n">
-        <v>0.02135583385825157</v>
+        <v>25.85580062866211</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.01970420405268669</v>
+        <v>25.33275985717773</v>
       </c>
       <c r="B173" t="n">
-        <v>0.02136225067079067</v>
+        <v>25.85580062866211</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.01970287784934044</v>
+        <v>25.32097816467285</v>
       </c>
       <c r="B174" t="n">
-        <v>0.02136466652154922</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.01970280334353447</v>
+        <v>25.31616973876953</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0213666670024395</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.01970908790826797</v>
+        <v>25.29648208618164</v>
       </c>
       <c r="B176" t="n">
-        <v>0.02136908285319805</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.01970908790826797</v>
+        <v>25.29648208618164</v>
       </c>
       <c r="B177" t="n">
-        <v>0.02136058360338211</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.01970916427671909</v>
+        <v>25.28243637084961</v>
       </c>
       <c r="B178" t="n">
-        <v>0.02137250080704689</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.01970916427671909</v>
+        <v>25.28243637084961</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02138741686940193</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.01990638487040997</v>
+        <v>25.32604598999023</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02139623835682869</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.01990638487040997</v>
+        <v>25.32604598999023</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02140216715633869</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.0198848582804203</v>
+        <v>25.43213272094727</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02139840461313725</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.01985666900873184</v>
+        <v>25.33928298950195</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02141040563583374</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.01986010931432247</v>
+        <v>25.32478713989258</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02141148783266544</v>
+        <v>25.85379981994629</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.0198605228215456</v>
+        <v>25.32538032531738</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02141307108104229</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.01986052840948105</v>
+        <v>25.32540893554688</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02141016721725464</v>
+        <v>25.85379981994629</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.01985893398523331</v>
+        <v>25.31730079650879</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02141158282756805</v>
+        <v>25.85379981994629</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.01985654234886169</v>
+        <v>25.30747222900391</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02138723805546761</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.01985889486968517</v>
+        <v>25.32873916625977</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02140064351260662</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.01998285390436649</v>
+        <v>25.07168006896973</v>
       </c>
       <c r="B190" t="n">
-        <v>0.021413404494524</v>
+        <v>25.85330009460449</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.01971299387514591</v>
+        <v>23.8107852935791</v>
       </c>
       <c r="B191" t="n">
-        <v>0.02141472697257996</v>
+        <v>25.85330009460449</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.01960116252303123</v>
+        <v>25.14895629882812</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02141673862934113</v>
+        <v>25.8528003692627</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.01928242668509483</v>
+        <v>25.25325202941895</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02142314240336418</v>
+        <v>25.8528003692627</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.0175106730312109</v>
+        <v>21.49962043762207</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02143464237451553</v>
+        <v>25.8523006439209</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.01550901122391224</v>
+        <v>2.471386432647705</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02143122628331184</v>
+        <v>25.8528003692627</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.01539069227874279</v>
+        <v>1.736136436462402</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02144639194011688</v>
+        <v>25.8528003692627</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.01539887394756079</v>
+        <v>1.730742692947388</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0157518032938242</v>
+        <v>0.2445529997348785</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.01539492141455412</v>
+        <v>1.731878757476807</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0157518032938242</v>
+        <v>25.0846996307373</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.01539185922592878</v>
+        <v>1.701749801635742</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01514741778373718</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.0153976222500205</v>
+        <v>1.681157231330872</v>
       </c>
       <c r="B200" t="n">
-        <v>0.01446226797997952</v>
+        <v>0.1951899975538254</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.01540008466690779</v>
+        <v>1.696337938308716</v>
       </c>
       <c r="B201" t="n">
-        <v>0.01446226797997952</v>
+        <v>26.99640083312988</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.01447584945708513</v>
+        <v>4.522361278533936</v>
       </c>
       <c r="B202" t="n">
-        <v>0.01416376698762178</v>
+        <v>25.08270072937012</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.01417073979973793</v>
+        <v>1.481390237808228</v>
       </c>
       <c r="B203" t="n">
-        <v>0.01405558548867702</v>
+        <v>0.2008669972419739</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.01434166729450226</v>
+        <v>1.200148820877075</v>
       </c>
       <c r="B204" t="n">
-        <v>0.01396944094449282</v>
+        <v>0.185028001666069</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.0143277496099472</v>
+        <v>1.200751304626465</v>
       </c>
       <c r="B205" t="n">
-        <v>0.01392737030982971</v>
+        <v>0.2401580065488815</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.01434457302093506</v>
+        <v>1.201657295227051</v>
       </c>
       <c r="B206" t="n">
-        <v>0.01392737030982971</v>
+        <v>26.95610046386719</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.01451265159994364</v>
+        <v>1.219509720802307</v>
       </c>
       <c r="B207" t="n">
-        <v>0.01381317805498838</v>
+        <v>26.99640083312988</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.01454264670610428</v>
+        <v>1.228385925292969</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0137991551309824</v>
+        <v>0.2380370050668716</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.01517159678041935</v>
+        <v>1.173620462417603</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0137991551309824</v>
+        <v>0.2380370050668716</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.01517481170594692</v>
+        <v>1.178981304168701</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0137991551309824</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.01462111063301563</v>
+        <v>1.026152968406677</v>
       </c>
       <c r="B211" t="n">
-        <v>0.01377806812524796</v>
+        <v>0.1868440061807632</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.01471319608390331</v>
+        <v>0.9562920928001404</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0137600339949131</v>
+        <v>0.2338559925556183</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.01471319608390331</v>
+        <v>0.9562920928001404</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0137600339949131</v>
+        <v>25.08270072937012</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.01454525906592607</v>
+        <v>0.9578275084495544</v>
       </c>
       <c r="B214" t="n">
-        <v>0.01375201903283596</v>
+        <v>0.2334900051355362</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.01453024242073298</v>
+        <v>0.9580137133598328</v>
       </c>
       <c r="B215" t="n">
-        <v>0.01376298442482948</v>
+        <v>0.2337190061807632</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.01453024335205555</v>
+        <v>0.9580138325691223</v>
       </c>
       <c r="B216" t="n">
-        <v>0.01376298442482948</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.01449331920593977</v>
+        <v>0.9579116106033325</v>
       </c>
       <c r="B217" t="n">
-        <v>0.01376298442482948</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.01456233859062195</v>
+        <v>0.9591501951217651</v>
       </c>
       <c r="B218" t="n">
-        <v>0.01374895498156548</v>
+        <v>0.2341610044240952</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.01455265283584595</v>
+        <v>0.9593315720558167</v>
       </c>
       <c r="B219" t="n">
-        <v>0.01374895498156548</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.0145514840260148</v>
+        <v>0.9597689509391785</v>
       </c>
       <c r="B220" t="n">
-        <v>0.01376699283719063</v>
+        <v>0.2017060071229935</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.01453423779457808</v>
+        <v>0.9556621909141541</v>
       </c>
       <c r="B221" t="n">
-        <v>0.01376699283719063</v>
+        <v>0.2017060071229935</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.01453423779457808</v>
+        <v>0.9556621909141541</v>
       </c>
       <c r="B222" t="n">
-        <v>0.01376699283719063</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.01492736767977476</v>
+        <v>0.9699913263320923</v>
       </c>
       <c r="B223" t="n">
-        <v>0.01375296339392662</v>
+        <v>0.1759189963340759</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.01492003072053194</v>
+        <v>0.9676894545555115</v>
       </c>
       <c r="B224" t="n">
-        <v>0.01375296339392662</v>
+        <v>25.08370018005371</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.01492003072053194</v>
+        <v>0.9676894545555115</v>
       </c>
       <c r="B225" t="n">
-        <v>0.01375296339392662</v>
+        <v>25.08370018005371</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.01389948837459087</v>
+        <v>0.923362672328949</v>
       </c>
       <c r="B226" t="n">
-        <v>0.01373692974448204</v>
+        <v>0.2334900051355362</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.01402096170932055</v>
+        <v>1.411989688873291</v>
       </c>
       <c r="B227" t="n">
-        <v>0.01373787224292755</v>
+        <v>0.1693270057439804</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.01402096170932055</v>
+        <v>1.411989688873291</v>
       </c>
       <c r="B228" t="n">
-        <v>0.01373787224292755</v>
+        <v>0.1693270057439804</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.01423798874020576</v>
+        <v>1.559837818145752</v>
       </c>
       <c r="B229" t="n">
-        <v>0.01373386289924383</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.01426089834421873</v>
+        <v>1.562801599502563</v>
       </c>
       <c r="B230" t="n">
-        <v>0.01373386289924383</v>
+        <v>0.2346950024366379</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.01424323208630085</v>
+        <v>1.557152032852173</v>
       </c>
       <c r="B231" t="n">
-        <v>0.01373386289924383</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.01424323208630085</v>
+        <v>1.557152032852173</v>
       </c>
       <c r="B232" t="n">
-        <v>0.01373386289924383</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.01429769303649664</v>
+        <v>1.564901828765869</v>
       </c>
       <c r="B233" t="n">
-        <v>0.01373277138918638</v>
+        <v>25.08320045471191</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.01342610269784927</v>
+        <v>1.051928758621216</v>
       </c>
       <c r="B234" t="n">
-        <v>0.01373477652668953</v>
+        <v>0.2309879958629608</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.01351302117109299</v>
+        <v>1.049420833587646</v>
       </c>
       <c r="B235" t="n">
-        <v>0.01373477652668953</v>
+        <v>25.08320045471191</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.01351302117109299</v>
+        <v>1.049420833587646</v>
       </c>
       <c r="B236" t="n">
-        <v>0.01373477652668953</v>
+        <v>25.08320045471191</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.01422889996320009</v>
+        <v>0.9015920162200928</v>
       </c>
       <c r="B237" t="n">
-        <v>0.01373678166419268</v>
+        <v>0.1731110066175461</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.01109342370182276</v>
+        <v>0.8788530230522156</v>
       </c>
       <c r="B238" t="n">
-        <v>0.01373076625168324</v>
+        <v>0.2371219992637634</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.01064233481884003</v>
+        <v>0.8788530230522156</v>
       </c>
       <c r="B239" t="n">
-        <v>0.01373076625168324</v>
+        <v>25.08119964599609</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.01186743285506964</v>
+        <v>0.9413313269615173</v>
       </c>
       <c r="B240" t="n">
-        <v>0.01373076625168324</v>
+        <v>25.08119964599609</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.01385324355214834</v>
+        <v>1.010047435760498</v>
       </c>
       <c r="B241" t="n">
-        <v>0.01372675597667694</v>
+        <v>25.0846996307373</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.01384194567799568</v>
+        <v>1.011141538619995</v>
       </c>
       <c r="B242" t="n">
-        <v>0.01373477652668953</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.01384193729609251</v>
+        <v>1.011144757270813</v>
       </c>
       <c r="B243" t="n">
-        <v>0.01373477652668953</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.01384231820702553</v>
+        <v>1.01063597202301</v>
       </c>
       <c r="B244" t="n">
-        <v>0.01372167933732271</v>
+        <v>0.2334900051355362</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.01384231820702553</v>
+        <v>1.01063597202301</v>
       </c>
       <c r="B245" t="n">
-        <v>0.01372167933732271</v>
+        <v>25.08320045471191</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.01519273780286312</v>
+        <v>0.9743015170097351</v>
       </c>
       <c r="B246" t="n">
-        <v>0.01373571809381247</v>
+        <v>0.2327270060777664</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.01385011244565248</v>
+        <v>1.112568736076355</v>
       </c>
       <c r="B247" t="n">
-        <v>0.01373571809381247</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.01469536498188972</v>
+        <v>1.315299153327942</v>
       </c>
       <c r="B248" t="n">
-        <v>0.01373571809381247</v>
+        <v>25.08419990539551</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.01601596176624298</v>
+        <v>1.557905912399292</v>
       </c>
       <c r="B249" t="n">
-        <v>0.01372970174998045</v>
+        <v>25.08169937133789</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.01576705276966095</v>
+        <v>2.121465682983398</v>
       </c>
       <c r="B250" t="n">
-        <v>0.01372368540614843</v>
+        <v>0.2321169972419739</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.01632614061236382</v>
+        <v>2.156383275985718</v>
       </c>
       <c r="B251" t="n">
-        <v>0.01372368540614843</v>
+        <v>25.08270072937012</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.01809374429285526</v>
+        <v>2.127188444137573</v>
       </c>
       <c r="B252" t="n">
-        <v>0.01371766906231642</v>
+        <v>0.2309879958629608</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.01811054162681103</v>
+        <v>13.31262397766113</v>
       </c>
       <c r="B253" t="n">
-        <v>0.01371766906231642</v>
+        <v>0.2309879958629608</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.02000086754560471</v>
+        <v>25.16497230529785</v>
       </c>
       <c r="B254" t="n">
-        <v>0.01371766906231642</v>
+        <v>0.1731870025396347</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.02000086754560471</v>
+        <v>25.16497230529785</v>
       </c>
       <c r="B255" t="n">
-        <v>0.01371766906231642</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.02000724896788597</v>
+        <v>25.17362594604492</v>
       </c>
       <c r="B256" t="n">
-        <v>0.01573539339005947</v>
+        <v>25.9473991394043</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.02000960148870945</v>
+        <v>25.17923927307129</v>
       </c>
       <c r="B257" t="n">
-        <v>0.01686703041195869</v>
+        <v>25.92679977416992</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.02001061104238033</v>
+        <v>25.17810440063477</v>
       </c>
       <c r="B258" t="n">
-        <v>0.0175150204449892</v>
+        <v>25.91620063781738</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.02001285739243031</v>
+        <v>25.20813941955566</v>
       </c>
       <c r="B259" t="n">
-        <v>0.0186637993901968</v>
+        <v>25.8966007232666</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.02000848576426506</v>
+        <v>25.22798156738281</v>
       </c>
       <c r="B260" t="n">
-        <v>0.01885155402123928</v>
+        <v>25.89360046386719</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.02006801962852478</v>
+        <v>25.27463722229004</v>
       </c>
       <c r="B261" t="n">
-        <v>0.01956724002957344</v>
+        <v>25.88150024414062</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.02007885091006756</v>
+        <v>25.30294799804688</v>
       </c>
       <c r="B262" t="n">
-        <v>0.01980499550700188</v>
+        <v>25.87750053405762</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.02006124332547188</v>
+        <v>25.39821624755859</v>
       </c>
       <c r="B263" t="n">
-        <v>0.02013300359249115</v>
+        <v>25.87089920043945</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.02005380019545555</v>
+        <v>25.43841552734375</v>
       </c>
       <c r="B264" t="n">
-        <v>0.02020133845508099</v>
+        <v>25.87039947509766</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.02008676901459694</v>
+        <v>25.61237335205078</v>
       </c>
       <c r="B265" t="n">
-        <v>0.02049692906439304</v>
+        <v>25.86490058898926</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.02003249898552895</v>
+        <v>25.4479923248291</v>
       </c>
       <c r="B266" t="n">
-        <v>0.02061326615512371</v>
+        <v>25.86240005493164</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.02003249898552895</v>
+        <v>25.4479923248291</v>
       </c>
       <c r="B267" t="n">
-        <v>0.02067143283784389</v>
+        <v>25.86140060424805</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.02003017626702785</v>
+        <v>25.42702674865723</v>
       </c>
       <c r="B268" t="n">
-        <v>0.02069276757538319</v>
+        <v>25.86090087890625</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.02002855017781258</v>
+        <v>25.42452430725098</v>
       </c>
       <c r="B269" t="n">
-        <v>0.02074693515896797</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.02002790570259094</v>
+        <v>25.44240760803223</v>
       </c>
       <c r="B270" t="n">
-        <v>0.02081827074289322</v>
+        <v>25.85840034484863</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.02002841793000698</v>
+        <v>25.44132232666016</v>
       </c>
       <c r="B271" t="n">
-        <v>0.02088568173348904</v>
+        <v>25.8577995300293</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.02003464102745056</v>
+        <v>25.4014778137207</v>
       </c>
       <c r="B272" t="n">
-        <v>0.02100585028529167</v>
+        <v>25.85530090332031</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.02007270604372025</v>
+        <v>25.42556953430176</v>
       </c>
       <c r="B273" t="n">
-        <v>0.02112660184502602</v>
+        <v>25.8528003692627</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.02006803825497627</v>
+        <v>25.42513465881348</v>
       </c>
       <c r="B274" t="n">
-        <v>0.02115484327077866</v>
+        <v>25.8523006439209</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.02007587999105453</v>
+        <v>25.35972595214844</v>
       </c>
       <c r="B275" t="n">
-        <v>0.02121934294700623</v>
+        <v>25.85079956054688</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.02011975273489952</v>
+        <v>25.54978370666504</v>
       </c>
       <c r="B276" t="n">
-        <v>0.02123975940048695</v>
+        <v>25.85029983520508</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.02011975273489952</v>
+        <v>25.5497875213623</v>
       </c>
       <c r="B277" t="n">
-        <v>0.02127151004970074</v>
+        <v>25.85029983520508</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.02011975273489952</v>
+        <v>25.5497875213623</v>
       </c>
       <c r="B278" t="n">
-        <v>0.02127275988459587</v>
+        <v>25.84980010986328</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.02011937834322453</v>
+        <v>25.56606674194336</v>
       </c>
       <c r="B279" t="n">
-        <v>0.02127034403383732</v>
+        <v>25.84980010986328</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.02011850103735924</v>
+        <v>25.57177734375</v>
       </c>
       <c r="B280" t="n">
-        <v>0.02129117771983147</v>
+        <v>25.84930038452148</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.02011695690453053</v>
+        <v>25.55765914916992</v>
       </c>
       <c r="B281" t="n">
-        <v>0.02134866639971733</v>
+        <v>25.84830093383789</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.01999630220234394</v>
+        <v>25.49613189697266</v>
       </c>
       <c r="B282" t="n">
-        <v>0.02134883403778076</v>
+        <v>25.84779930114746</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.02000283822417259</v>
+        <v>25.55755043029785</v>
       </c>
       <c r="B283" t="n">
-        <v>0.02136758342385292</v>
+        <v>25.84729957580566</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.02000283822417259</v>
+        <v>25.55755043029785</v>
       </c>
       <c r="B284" t="n">
-        <v>0.02135323919355869</v>
+        <v>25.84779930114746</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.02002137154340744</v>
+        <v>25.52361297607422</v>
       </c>
       <c r="B285" t="n">
-        <v>0.02135824970901012</v>
+        <v>25.84729957580566</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.02001811005175114</v>
+        <v>25.47512626647949</v>
       </c>
       <c r="B286" t="n">
-        <v>0.02136166580021381</v>
+        <v>25.84679985046387</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.02012079395353794</v>
+        <v>25.80221176147461</v>
       </c>
       <c r="B287" t="n">
-        <v>0.02138498798012733</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.0201240386813879</v>
+        <v>25.8052921295166</v>
       </c>
       <c r="B288" t="n">
-        <v>0.02140373922884464</v>
+        <v>25.84679985046387</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.0201261080801487</v>
+        <v>25.83095550537109</v>
       </c>
       <c r="B289" t="n">
-        <v>0.02140457183122635</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.02012575045228004</v>
+        <v>25.81918334960938</v>
       </c>
       <c r="B290" t="n">
-        <v>0.02140157110989094</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.02012848854064941</v>
+        <v>25.72661399841309</v>
       </c>
       <c r="B291" t="n">
-        <v>0.02142557129263878</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.02012856304645538</v>
+        <v>25.75469779968262</v>
       </c>
       <c r="B292" t="n">
-        <v>0.02143465541303158</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.02013097703456879</v>
+        <v>25.74690628051758</v>
       </c>
       <c r="B293" t="n">
-        <v>0.02142023853957653</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.02013274095952511</v>
+        <v>25.74668121337891</v>
       </c>
       <c r="B294" t="n">
-        <v>0.02141090482473373</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.02013229578733444</v>
+        <v>25.62398910522461</v>
       </c>
       <c r="B295" t="n">
-        <v>0.02142707072198391</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.02013511769473553</v>
+        <v>25.63607215881348</v>
       </c>
       <c r="B296" t="n">
-        <v>0.02142415568232536</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.02013476565480232</v>
+        <v>25.64937210083008</v>
       </c>
       <c r="B297" t="n">
-        <v>0.02141332067549229</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.02013324946165085</v>
+        <v>25.62457275390625</v>
       </c>
       <c r="B298" t="n">
-        <v>0.02141547575592995</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.02013324946165085</v>
+        <v>25.62457275390625</v>
       </c>
       <c r="B299" t="n">
-        <v>0.02140398882329464</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.0201928336173296</v>
+        <v>25.71303749084473</v>
       </c>
       <c r="B300" t="n">
-        <v>0.02142840437591076</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.02005481719970703</v>
+        <v>25.22004699707031</v>
       </c>
       <c r="B301" t="n">
-        <v>0.02142232097685337</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>0.02004917711019516</v>
+        <v>25.19290161132812</v>
       </c>
       <c r="B302" t="n">
-        <v>0.02141140401363373</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>0.02004819735884666</v>
+        <v>25.18348693847656</v>
       </c>
       <c r="B303" t="n">
-        <v>0.02140382118523121</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0.02004201710224152</v>
+        <v>25.3002815246582</v>
       </c>
       <c r="B304" t="n">
-        <v>0.02143889293074608</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>0.01992983557283878</v>
+        <v>25.54818725585938</v>
       </c>
       <c r="B305" t="n">
-        <v>0.02142639271914959</v>
+        <v>25.84530067443848</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0.01972241327166557</v>
+        <v>25.31759834289551</v>
       </c>
       <c r="B306" t="n">
-        <v>0.02141689322888851</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0.01970569416880608</v>
+        <v>25.11040496826172</v>
       </c>
       <c r="B307" t="n">
-        <v>0.02140530943870544</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>0.01652872748672962</v>
+        <v>10.34003162384033</v>
       </c>
       <c r="B308" t="n">
-        <v>0.02139622718095779</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>0.01589381694793701</v>
+        <v>1.92071008682251</v>
       </c>
       <c r="B309" t="n">
-        <v>0.02139122597873211</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>0.01518426369875669</v>
+        <v>1.450345039367676</v>
       </c>
       <c r="B310" t="n">
-        <v>0.02139147743582726</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>0.01518426369875669</v>
+        <v>1.450345039367676</v>
       </c>
       <c r="B311" t="n">
-        <v>0.02139561995863914</v>
+        <v>25.84580039978027</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>0.01519143767654896</v>
+        <v>1.450155735015869</v>
       </c>
       <c r="B312" t="n">
-        <v>0.02140414342284203</v>
+        <v>25.84530067443848</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>0.01518522016704082</v>
+        <v>1.450681924819946</v>
       </c>
       <c r="B313" t="n">
-        <v>0.02140831016004086</v>
+        <v>25.84530067443848</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>0.01519145909696817</v>
+        <v>1.45085883140564</v>
       </c>
       <c r="B314" t="n">
-        <v>0.01674209348857403</v>
+        <v>0.3184970021247864</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>0.01519145909696817</v>
+        <v>1.45085883140564</v>
       </c>
       <c r="B315" t="n">
-        <v>0.01674209348857403</v>
+        <v>0.3184970021247864</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>0.01520028803497553</v>
+        <v>1.450689792633057</v>
       </c>
       <c r="B316" t="n">
-        <v>0.01674209348857403</v>
+        <v>25.08930015563965</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0.01519662421196699</v>
+        <v>1.451793909072876</v>
       </c>
       <c r="B317" t="n">
-        <v>0.01674209348857403</v>
+        <v>25.08930015563965</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0.01519746147096157</v>
+        <v>1.451133966445923</v>
       </c>
       <c r="B318" t="n">
-        <v>0.01560017745941877</v>
+        <v>0.3193359971046448</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>0.01520982570946217</v>
+        <v>1.451851725578308</v>
       </c>
       <c r="B319" t="n">
-        <v>0.01560017745941877</v>
+        <v>0.3193359971046448</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>0.01520982570946217</v>
+        <v>1.451851725578308</v>
       </c>
       <c r="B320" t="n">
-        <v>0.01560017745941877</v>
+        <v>0.3193359971046448</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>0.01530267484486103</v>
+        <v>1.450325965881348</v>
       </c>
       <c r="B321" t="n">
-        <v>0.01509132329374552</v>
+        <v>26.95660018920898</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>0.0146615244448185</v>
+        <v>1.476495742797852</v>
       </c>
       <c r="B322" t="n">
-        <v>0.01446026470512152</v>
+        <v>0.2406159937381744</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>0.01466239988803864</v>
+        <v>1.476204872131348</v>
       </c>
       <c r="B323" t="n">
-        <v>0.01446026470512152</v>
+        <v>26.99180030822754</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>0.01466318499296904</v>
+        <v>1.476186037063599</v>
       </c>
       <c r="B324" t="n">
-        <v>0.01446026470512152</v>
+        <v>26.99180030822754</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>0.01437030453234911</v>
+        <v>1.353279232978821</v>
       </c>
       <c r="B325" t="n">
-        <v>0.01417074631899595</v>
+        <v>0.2472839951515198</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0.01463541481643915</v>
+        <v>1.310038328170776</v>
       </c>
       <c r="B326" t="n">
-        <v>0.01417074631899595</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>0.01468596793711185</v>
+        <v>1.301337957382202</v>
       </c>
       <c r="B327" t="n">
-        <v>0.01417074631899595</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>0.01443489268422127</v>
+        <v>1.239401578903198</v>
       </c>
       <c r="B328" t="n">
-        <v>0.01408061385154724</v>
+        <v>0.2489620000123978</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0.01443489268422127</v>
+        <v>1.239401578903198</v>
       </c>
       <c r="B329" t="n">
-        <v>0.01408061385154724</v>
+        <v>0.2489620000123978</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>0.01443495322018862</v>
+        <v>1.239407062530518</v>
       </c>
       <c r="B330" t="n">
-        <v>0.01408061385154724</v>
+        <v>26.95709991455078</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>0.01443128753453493</v>
+        <v>1.237430453300476</v>
       </c>
       <c r="B331" t="n">
-        <v>0.01396644674241543</v>
+        <v>0.2490389943122864</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0.01440136693418026</v>
+        <v>1.237168192863464</v>
       </c>
       <c r="B332" t="n">
-        <v>0.01396644674241543</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>0.01458615250885487</v>
+        <v>1.232733726501465</v>
       </c>
       <c r="B333" t="n">
-        <v>0.0138723086565733</v>
+        <v>25.08580017089844</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>0.01452078483998775</v>
+        <v>1.237918496131897</v>
       </c>
       <c r="B334" t="n">
-        <v>0.0138412257656455</v>
+        <v>25.08629989624023</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>0.01420542597770691</v>
+        <v>1.235049247741699</v>
       </c>
       <c r="B335" t="n">
-        <v>0.01381317805498838</v>
+        <v>0.21110500395298</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0.0144426142796874</v>
+        <v>1.059425950050354</v>
       </c>
       <c r="B336" t="n">
-        <v>0.01381317805498838</v>
+        <v>0.21110500395298</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>0.01455700118094683</v>
+        <v>5.404910087585449</v>
       </c>
       <c r="B337" t="n">
-        <v>0.01381317805498838</v>
+        <v>26.99130058288574</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>0.01411680690944195</v>
+        <v>1.272783279418945</v>
       </c>
       <c r="B338" t="n">
-        <v>0.0137951485812664</v>
+        <v>0.2160339951515198</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0.01548961363732815</v>
+        <v>4.977555274963379</v>
       </c>
       <c r="B339" t="n">
-        <v>0.0137951485812664</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0.01491412706673145</v>
+        <v>1.152995586395264</v>
       </c>
       <c r="B340" t="n">
-        <v>0.01377311162650585</v>
+        <v>0.2292329967021942</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>0.01508989464491606</v>
+        <v>1.219320058822632</v>
       </c>
       <c r="B341" t="n">
-        <v>0.01377311162650585</v>
+        <v>0.2292329967021942</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>0.01508989464491606</v>
+        <v>1.219320058822632</v>
       </c>
       <c r="B342" t="n">
-        <v>0.01377311162650585</v>
+        <v>25.08580017089844</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0.01508989464491606</v>
+        <v>1.219320058822632</v>
       </c>
       <c r="B343" t="n">
-        <v>0.01377311162650585</v>
+        <v>25.08580017089844</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0.01507047656923532</v>
+        <v>1.219290852546692</v>
       </c>
       <c r="B344" t="n">
-        <v>0.01376203820109367</v>
+        <v>0.220443993806839</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>0.01504770573228598</v>
+        <v>1.223722338676453</v>
       </c>
       <c r="B345" t="n">
-        <v>0.01376203820109367</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>0.0150999752804637</v>
+        <v>1.2355637550354</v>
       </c>
       <c r="B346" t="n">
-        <v>0.01373893395066261</v>
+        <v>0.2229460030794144</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>0.01510182861238718</v>
+        <v>1.237589120864868</v>
       </c>
       <c r="B347" t="n">
-        <v>0.01373893395066261</v>
+        <v>25.08629989624023</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>0.01462837494909763</v>
+        <v>1.391948461532593</v>
       </c>
       <c r="B348" t="n">
-        <v>0.01373799238353968</v>
+        <v>0.2499389946460724</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>0.01484145410358906</v>
+        <v>1.487231731414795</v>
       </c>
       <c r="B349" t="n">
-        <v>0.01372891291975975</v>
+        <v>0.2476650029420853</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0.01343629136681557</v>
+        <v>1.176617383956909</v>
       </c>
       <c r="B350" t="n">
-        <v>0.01372891291975975</v>
+        <v>25.08629989624023</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0.01403651386499405</v>
+        <v>1.396559000015259</v>
       </c>
       <c r="B351" t="n">
-        <v>0.01373492553830147</v>
+        <v>0.2446289956569672</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>0.01409743167459965</v>
+        <v>1.397794485092163</v>
       </c>
       <c r="B352" t="n">
-        <v>0.01373185776174068</v>
+        <v>0.2321929931640625</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>0.01410993188619614</v>
+        <v>1.399853467941284</v>
       </c>
       <c r="B353" t="n">
-        <v>0.01372784841805696</v>
+        <v>0.2514649927616119</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>0.01475696358829737</v>
+        <v>1.344100713729858</v>
       </c>
       <c r="B354" t="n">
-        <v>0.01372383907437325</v>
+        <v>0.2519069910049438</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>0.01489822752773762</v>
+        <v>1.459432125091553</v>
       </c>
       <c r="B355" t="n">
-        <v>0.01372383907437325</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>0.01498791016638279</v>
+        <v>1.589118361473083</v>
       </c>
       <c r="B356" t="n">
-        <v>0.01372183486819267</v>
+        <v>0.2563169896602631</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>0.01492585055530071</v>
+        <v>1.580637693405151</v>
       </c>
       <c r="B357" t="n">
-        <v>0.01372183486819267</v>
+        <v>0.2563169896602631</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>0.01499797403812408</v>
+        <v>1.663669109344482</v>
       </c>
       <c r="B358" t="n">
-        <v>0.01372183486819267</v>
+        <v>26.95610046386719</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>0.01499915309250355</v>
+        <v>1.466018915176392</v>
       </c>
       <c r="B359" t="n">
-        <v>0.01372183486819267</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>0.01499915309250355</v>
+        <v>1.466018915176392</v>
       </c>
       <c r="B360" t="n">
-        <v>0.01372183486819267</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>0.01498502865433693</v>
+        <v>1.464840412139893</v>
       </c>
       <c r="B361" t="n">
-        <v>0.01371982973068953</v>
+        <v>0.2426609992980957</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>0.01499524526298046</v>
+        <v>1.464860320091248</v>
       </c>
       <c r="B362" t="n">
-        <v>0.01371982973068953</v>
+        <v>0.2426609992980957</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>0.01499524526298046</v>
+        <v>1.464860320091248</v>
       </c>
       <c r="B363" t="n">
-        <v>0.01371982973068953</v>
+        <v>25.08729934692383</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>0.01499524526298046</v>
+        <v>1.464860320091248</v>
       </c>
       <c r="B364" t="n">
-        <v>0.01371982973068953</v>
+        <v>25.08729934692383</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>0.01499117724597454</v>
+        <v>1.465359330177307</v>
       </c>
       <c r="B365" t="n">
-        <v>0.01371782552450895</v>
+        <v>25.08729934692383</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>0.01499809883534908</v>
+        <v>1.460001707077026</v>
       </c>
       <c r="B366" t="n">
-        <v>0.01371982973068953</v>
+        <v>26.95660018920898</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>0.01449258252978325</v>
+        <v>1.446815729141235</v>
       </c>
       <c r="B367" t="n">
-        <v>0.01371673122048378</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>0.01426337566226721</v>
+        <v>1.67485249042511</v>
       </c>
       <c r="B368" t="n">
-        <v>0.01371472608298063</v>
+        <v>0.2521359920501709</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>0.01544833090156317</v>
+        <v>7.732742786407471</v>
       </c>
       <c r="B369" t="n">
-        <v>0.01372675597667694</v>
+        <v>0.2539669871330261</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>0.01543649844825268</v>
+        <v>8.901632308959961</v>
       </c>
       <c r="B370" t="n">
-        <v>0.01372675597667694</v>
+        <v>0.2539669871330261</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>0.01521917618811131</v>
+        <v>10.01212882995605</v>
       </c>
       <c r="B371" t="n">
-        <v>0.01372675597667694</v>
+        <v>26.99530029296875</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>0.01520024985074997</v>
+        <v>9.078015327453613</v>
       </c>
       <c r="B372" t="n">
-        <v>0.01371272094547749</v>
+        <v>0.2501679956912994</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>0.01876970008015633</v>
+        <v>22.94577598571777</v>
       </c>
       <c r="B373" t="n">
-        <v>0.01371472608298063</v>
+        <v>0.2508539855480194</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>0.01973117142915726</v>
+        <v>25.05465126037598</v>
       </c>
       <c r="B374" t="n">
-        <v>0.01370871067047119</v>
+        <v>0.2180179953575134</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>0.01973291300237179</v>
+        <v>25.04862213134766</v>
       </c>
       <c r="B375" t="n">
-        <v>0.01370871067047119</v>
+        <v>0.2180179953575134</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>0.01973863318562508</v>
+        <v>25.05347442626953</v>
       </c>
       <c r="B376" t="n">
-        <v>0.01682419702410698</v>
+        <v>25.91720008850098</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>0.01973626390099525</v>
+        <v>25.02755928039551</v>
       </c>
       <c r="B377" t="n">
-        <v>0.01710028573870659</v>
+        <v>25.91220092773438</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>0.01973377168178558</v>
+        <v>25.02589225769043</v>
       </c>
       <c r="B378" t="n">
-        <v>0.01830263808369637</v>
+        <v>25.89209938049316</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>0.01971966214478016</v>
+        <v>25.1072940826416</v>
       </c>
       <c r="B379" t="n">
-        <v>0.0192070696502924</v>
+        <v>25.87700080871582</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>0.02013983018696308</v>
+        <v>25.25386238098145</v>
       </c>
       <c r="B380" t="n">
-        <v>0.01949974149465561</v>
+        <v>25.87190055847168</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>0.0201397966593504</v>
+        <v>25.27008819580078</v>
       </c>
       <c r="B381" t="n">
-        <v>0.01964091137051582</v>
+        <v>25.86890029907227</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>0.02013726346194744</v>
+        <v>25.24992752075195</v>
       </c>
       <c r="B382" t="n">
-        <v>0.02018883638083935</v>
+        <v>25.85989952087402</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>0.02012104541063309</v>
+        <v>25.26506423950195</v>
       </c>
       <c r="B383" t="n">
-        <v>0.02030500769615173</v>
+        <v>25.8572998046875</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>0.02015989273786545</v>
+        <v>25.48499298095703</v>
       </c>
       <c r="B384" t="n">
-        <v>0.02067784406244755</v>
+        <v>25.85079956054688</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>0.02016095630824566</v>
+        <v>25.48743438720703</v>
       </c>
       <c r="B385" t="n">
-        <v>0.02071376703679562</v>
+        <v>25.85029983520508</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>0.02016074396669865</v>
+        <v>25.47200584411621</v>
       </c>
       <c r="B386" t="n">
-        <v>0.02085768058896065</v>
+        <v>25.84779930114746</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>0.02016119100153446</v>
+        <v>25.48504257202148</v>
       </c>
       <c r="B387" t="n">
-        <v>0.02088884823024273</v>
+        <v>25.84729957580566</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>0.02016151510179043</v>
+        <v>25.48954963684082</v>
       </c>
       <c r="B388" t="n">
-        <v>0.02093109861016273</v>
+        <v>25.84679985046387</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>0.02016151510179043</v>
+        <v>25.48954963684082</v>
       </c>
       <c r="B389" t="n">
-        <v>0.02094126492738724</v>
+        <v>25.84630012512207</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>0.02011924609541893</v>
+        <v>25.44956016540527</v>
       </c>
       <c r="B390" t="n">
-        <v>0.02112235128879547</v>
+        <v>25.84269905090332</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>0.02011924609541893</v>
+        <v>25.44956016540527</v>
       </c>
       <c r="B391" t="n">
-        <v>0.0211230181157589</v>
+        <v>25.84269905090332</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>0.02011925913393497</v>
+        <v>25.45473480224609</v>
       </c>
       <c r="B392" t="n">
-        <v>0.02115643583238125</v>
+        <v>25.84230041503906</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>0.02011986635625362</v>
+        <v>25.48834419250488</v>
       </c>
       <c r="B393" t="n">
-        <v>0.02116110362112522</v>
+        <v>25.84230041503906</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>0.02011357806622982</v>
+        <v>25.48588943481445</v>
       </c>
       <c r="B394" t="n">
-        <v>0.02120843715965748</v>
+        <v>25.84119987487793</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>0.02011367678642273</v>
+        <v>25.49377822875977</v>
       </c>
       <c r="B395" t="n">
-        <v>0.0212226863950491</v>
+        <v>25.84119987487793</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>0.02011506445705891</v>
+        <v>25.5188102722168</v>
       </c>
       <c r="B396" t="n">
-        <v>0.02124227024614811</v>
+        <v>25.84070014953613</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>0.02012674324214458</v>
+        <v>25.68465042114258</v>
       </c>
       <c r="B397" t="n">
-        <v>0.02128492668271065</v>
+        <v>25.84070014953613</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>0.02007562480866909</v>
+        <v>25.46688842773438</v>
       </c>
       <c r="B398" t="n">
-        <v>0.02127651125192642</v>
+        <v>25.84020042419434</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>0.02007562480866909</v>
+        <v>25.46688842773438</v>
       </c>
       <c r="B399" t="n">
-        <v>0.02129742689430714</v>
+        <v>25.84020042419434</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>0.02007562480866909</v>
+        <v>25.46688842773438</v>
       </c>
       <c r="B400" t="n">
-        <v>0.02130684442818165</v>
+        <v>25.84020042419434</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>0.02007441595196724</v>
+        <v>25.45641708374023</v>
       </c>
       <c r="B401" t="n">
-        <v>0.02131234481930733</v>
+        <v>25.83970069885254</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>0.02007441595196724</v>
+        <v>25.4564151763916</v>
       </c>
       <c r="B402" t="n">
-        <v>0.02133199945092201</v>
+        <v>25.83970069885254</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>0.02007419988512993</v>
+        <v>25.45884704589844</v>
       </c>
       <c r="B403" t="n">
-        <v>0.02133191749453545</v>
+        <v>25.83970069885254</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>0.02007403410971165</v>
+        <v>25.47238349914551</v>
       </c>
       <c r="B404" t="n">
-        <v>0.02136100083589554</v>
+        <v>25.83919906616211</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>0.02007563412189484</v>
+        <v>25.51018714904785</v>
       </c>
       <c r="B405" t="n">
-        <v>0.02136800065636635</v>
+        <v>25.83919906616211</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>0.02007502317428589</v>
+        <v>25.49423980712891</v>
       </c>
       <c r="B406" t="n">
-        <v>0.02136976085603237</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>0.01985531114041805</v>
+        <v>25.4235954284668</v>
       </c>
       <c r="B407" t="n">
-        <v>0.02138133347034454</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>0.01986892707645893</v>
+        <v>25.40735054016113</v>
       </c>
       <c r="B408" t="n">
-        <v>0.02139123901724815</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>0.01987220719456673</v>
+        <v>25.44592666625977</v>
       </c>
       <c r="B409" t="n">
-        <v>0.0214056558907032</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>0.01987212896347046</v>
+        <v>25.44596290588379</v>
       </c>
       <c r="B410" t="n">
-        <v>0.02139908261597157</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>0.01984643377363682</v>
+        <v>25.33958625793457</v>
       </c>
       <c r="B411" t="n">
-        <v>0.02142141759395599</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>0.0198636669665575</v>
+        <v>25.39419937133789</v>
       </c>
       <c r="B412" t="n">
-        <v>0.02140898816287518</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>0.01986624300479889</v>
+        <v>25.40524291992188</v>
       </c>
       <c r="B413" t="n">
-        <v>0.02139323763549328</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>0.01986731775105</v>
+        <v>25.40583801269531</v>
       </c>
       <c r="B414" t="n">
-        <v>0.02140598744153976</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>0.01987282745540142</v>
+        <v>25.42385482788086</v>
       </c>
       <c r="B415" t="n">
-        <v>0.0214094053953886</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>0.01987216621637344</v>
+        <v>25.45162010192871</v>
       </c>
       <c r="B416" t="n">
-        <v>0.02140715532004833</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>0.02000773139297962</v>
+        <v>25.48291969299316</v>
       </c>
       <c r="B417" t="n">
-        <v>0.02139898762106895</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>0.02000667154788971</v>
+        <v>25.48400688171387</v>
       </c>
       <c r="B418" t="n">
-        <v>0.02139623835682869</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>0.02000667154788971</v>
+        <v>25.48400688171387</v>
       </c>
       <c r="B419" t="n">
-        <v>0.02139640413224697</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>0.02000667527318001</v>
+        <v>25.4840145111084</v>
       </c>
       <c r="B420" t="n">
-        <v>0.021392822265625</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>0.02001543901860714</v>
+        <v>25.41153144836426</v>
       </c>
       <c r="B421" t="n">
-        <v>0.02137081138789654</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>0.02001390419900417</v>
+        <v>25.29297256469727</v>
       </c>
       <c r="B422" t="n">
-        <v>0.02137989364564419</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>0.02000763267278671</v>
+        <v>25.30998039245605</v>
       </c>
       <c r="B423" t="n">
-        <v>0.02138715423643589</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>0.02000170387327671</v>
+        <v>25.29345321655273</v>
       </c>
       <c r="B424" t="n">
-        <v>0.02140564285218716</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>0.01999454014003277</v>
+        <v>25.21309280395508</v>
       </c>
       <c r="B425" t="n">
-        <v>0.02141297608613968</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>0.01998001150786877</v>
+        <v>25.15917015075684</v>
       </c>
       <c r="B426" t="n">
-        <v>0.02140597626566887</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>0.01964539475739002</v>
+        <v>24.24635314941406</v>
       </c>
       <c r="B427" t="n">
-        <v>0.02142514288425446</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>0.01864923350512981</v>
+        <v>22.52276992797852</v>
       </c>
       <c r="B428" t="n">
-        <v>0.02145439200103283</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>0.01711190119385719</v>
+        <v>22.37338829040527</v>
       </c>
       <c r="B429" t="n">
-        <v>0.02145589329302311</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>0.01711212284862995</v>
+        <v>22.37457084655762</v>
       </c>
       <c r="B430" t="n">
-        <v>0.02144470252096653</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>0.01711212284862995</v>
+        <v>22.37457084655762</v>
       </c>
       <c r="B431" t="n">
-        <v>0.02144430950284004</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>0.01711433753371239</v>
+        <v>22.38293647766113</v>
       </c>
       <c r="B432" t="n">
-        <v>0.02144422568380833</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>0.01713208295404911</v>
+        <v>22.32827758789062</v>
       </c>
       <c r="B433" t="n">
-        <v>0.02145180851221085</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>0.01711351796984673</v>
+        <v>22.31941032409668</v>
       </c>
       <c r="B434" t="n">
-        <v>0.01687030866742134</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>0.01711351796984673</v>
+        <v>22.31941032409668</v>
       </c>
       <c r="B435" t="n">
-        <v>0.01687030866742134</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>0.01713974215090275</v>
+        <v>22.27932929992676</v>
       </c>
       <c r="B436" t="n">
-        <v>0.01569834165275097</v>
+        <v>0.1712950021028519</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>0.0171397477388382</v>
+        <v>22.27931785583496</v>
       </c>
       <c r="B437" t="n">
-        <v>0.01569834165275097</v>
+        <v>0.1712950021028519</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>0.01713977195322514</v>
+        <v>22.27925682067871</v>
       </c>
       <c r="B438" t="n">
-        <v>0.01515342760831118</v>
+        <v>0.1889649927616119</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>0.01713662780821323</v>
+        <v>22.32431030273438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.01515342760831118</v>
+        <v>0.1889649927616119</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>0.01689531095325947</v>
+        <v>2.116661548614502</v>
       </c>
       <c r="B440" t="n">
-        <v>0.01434299815446138</v>
+        <v>0.1534730046987534</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>0.01691305264830589</v>
+        <v>2.173780679702759</v>
       </c>
       <c r="B441" t="n">
-        <v>0.01434299815446138</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>0.01469330862164497</v>
+        <v>1.45040488243103</v>
       </c>
       <c r="B442" t="n">
-        <v>0.01395843550562859</v>
+        <v>0.114486999809742</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>0.01471709832549095</v>
+        <v>1.447846055030823</v>
       </c>
       <c r="B443" t="n">
-        <v>0.01388432644307613</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>0.01553421560674906</v>
+        <v>1.43631374835968</v>
       </c>
       <c r="B444" t="n">
-        <v>0.01385725289583206</v>
+        <v>25.08930015563965</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>0.01595989614725113</v>
+        <v>9.202448844909668</v>
       </c>
       <c r="B445" t="n">
-        <v>0.01382519863545895</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>0.01627461425960064</v>
+        <v>9.912874221801758</v>
       </c>
       <c r="B446" t="n">
-        <v>0.01381718553602695</v>
+        <v>0.1480100005865097</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>0.01452559977769852</v>
+        <v>2.348375558853149</v>
       </c>
       <c r="B447" t="n">
-        <v>0.0137951485812664</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>0.01524196658283472</v>
+        <v>1.061558604240417</v>
       </c>
       <c r="B448" t="n">
-        <v>0.0137951485812664</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>0.01509717665612698</v>
+        <v>0.8884869813919067</v>
       </c>
       <c r="B449" t="n">
-        <v>0.01377711817622185</v>
+        <v>0.1159970015287399</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>0.01508557796478271</v>
+        <v>0.8886029124259949</v>
       </c>
       <c r="B450" t="n">
-        <v>0.01376910414546728</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>0.01511438935995102</v>
+        <v>0.8890820145606995</v>
       </c>
       <c r="B451" t="n">
-        <v>0.01375708449631929</v>
+        <v>26.95709991455078</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>0.01508237607777119</v>
+        <v>0.8892886638641357</v>
       </c>
       <c r="B452" t="n">
-        <v>0.01375708449631929</v>
+        <v>26.95709991455078</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>0.01507542282342911</v>
+        <v>0.8892570734024048</v>
       </c>
       <c r="B453" t="n">
-        <v>0.0137600339949131</v>
+        <v>0.1531679928302765</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>0.01510936114937067</v>
+        <v>0.8891779780387878</v>
       </c>
       <c r="B454" t="n">
-        <v>0.01375402230769396</v>
+        <v>0.126693993806839</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>0.01616818085312843</v>
+        <v>0.8974601030349731</v>
       </c>
       <c r="B455" t="n">
-        <v>0.01375402230769396</v>
+        <v>0.1186520010232925</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>0.01616818085312843</v>
+        <v>0.8974601030349731</v>
       </c>
       <c r="B456" t="n">
-        <v>0.01375402230769396</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>0.01610649935901165</v>
+        <v>0.895180881023407</v>
       </c>
       <c r="B457" t="n">
-        <v>0.01375402230769396</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>0.01386889815330505</v>
+        <v>0.9844561815261841</v>
       </c>
       <c r="B458" t="n">
-        <v>0.01375402230769396</v>
+        <v>0.2164150029420853</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>0.01378566771745682</v>
+        <v>0.9844561815261841</v>
       </c>
       <c r="B459" t="n">
-        <v>0.01375402230769396</v>
+        <v>25.08779907226562</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>0.01450452394783497</v>
+        <v>1.193424463272095</v>
       </c>
       <c r="B460" t="n">
-        <v>0.01375095918774605</v>
+        <v>25.08729934692383</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>0.01517792884260416</v>
+        <v>1.200690031051636</v>
       </c>
       <c r="B461" t="n">
-        <v>0.01375095918774605</v>
+        <v>0.1299590021371841</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>0.01477009151130915</v>
+        <v>1.177911758422852</v>
       </c>
       <c r="B462" t="n">
-        <v>0.01375095918774605</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>0.01477005053311586</v>
+        <v>1.177901983261108</v>
       </c>
       <c r="B463" t="n">
-        <v>0.0137469507753849</v>
+        <v>0.2180179953575134</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>0.01475405506789684</v>
+        <v>1.177832365036011</v>
       </c>
       <c r="B464" t="n">
-        <v>0.01373692974448204</v>
+        <v>0.2165679931640625</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>0.01461473759263754</v>
+        <v>1.172568321228027</v>
       </c>
       <c r="B465" t="n">
-        <v>0.01373692974448204</v>
+        <v>0.2165679931640625</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>0.01462923362851143</v>
+        <v>1.172541856765747</v>
       </c>
       <c r="B466" t="n">
-        <v>0.01373692974448204</v>
+        <v>25.08830070495605</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>0.01462651416659355</v>
+        <v>1.173086166381836</v>
       </c>
       <c r="B467" t="n">
-        <v>0.01374494656920433</v>
+        <v>0.1538539975881577</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>0.01473856437951326</v>
+        <v>1.178669691085815</v>
       </c>
       <c r="B468" t="n">
-        <v>0.01374494656920433</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>0.01473855506628752</v>
+        <v>1.178669691085815</v>
       </c>
       <c r="B469" t="n">
-        <v>0.01373091712594032</v>
+        <v>0.2158199995756149</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>0.01474088802933693</v>
+        <v>1.178656339645386</v>
       </c>
       <c r="B470" t="n">
-        <v>0.01374294236302376</v>
+        <v>0.216949000954628</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>0.0128118647262454</v>
+        <v>1.126494884490967</v>
       </c>
       <c r="B471" t="n">
-        <v>0.01373893395066261</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>0.0128118647262454</v>
+        <v>1.126494884490967</v>
       </c>
       <c r="B472" t="n">
-        <v>0.01373893395066261</v>
+        <v>25.08679962158203</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>0.01401858404278755</v>
+        <v>0.9922043085098267</v>
       </c>
       <c r="B473" t="n">
-        <v>0.01373492553830147</v>
+        <v>0.1188810020685196</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>0.01411996595561504</v>
+        <v>1.092314124107361</v>
       </c>
       <c r="B474" t="n">
-        <v>0.01373386289924383</v>
+        <v>26.95660018920898</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>0.01397168077528477</v>
+        <v>1.201934814453125</v>
       </c>
       <c r="B475" t="n">
-        <v>0.01371181104332209</v>
+        <v>0.1291960030794144</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>0.01436253078281879</v>
+        <v>1.178149223327637</v>
       </c>
       <c r="B476" t="n">
-        <v>0.01373386289924383</v>
+        <v>0.2189940065145493</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>0.01436253078281879</v>
+        <v>1.178149223327637</v>
       </c>
       <c r="B477" t="n">
-        <v>0.01373386289924383</v>
+        <v>0.2189940065145493</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>0.01442641485482454</v>
+        <v>1.18419075012207</v>
       </c>
       <c r="B478" t="n">
-        <v>0.01371982973068953</v>
+        <v>0.1340479999780655</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>0.01440441980957985</v>
+        <v>1.175498485565186</v>
       </c>
       <c r="B479" t="n">
-        <v>0.01372985355556011</v>
+        <v>0.2185360044240952</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>0.01440441980957985</v>
+        <v>1.175498485565186</v>
       </c>
       <c r="B480" t="n">
-        <v>0.01372985355556011</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>0.01448833849281073</v>
+        <v>1.179856061935425</v>
       </c>
       <c r="B481" t="n">
-        <v>0.01371181104332209</v>
+        <v>0.1354980021715164</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>0.0152913723140955</v>
+        <v>1.562477350234985</v>
       </c>
       <c r="B482" t="n">
-        <v>0.01371181104332209</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>0.01556706521660089</v>
+        <v>9.817100524902344</v>
       </c>
       <c r="B483" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>0.01793235167860985</v>
+        <v>20.59844207763672</v>
       </c>
       <c r="B484" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.08880043029785</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>0.01994382776319981</v>
+        <v>25.36763381958008</v>
       </c>
       <c r="B485" t="n">
-        <v>0.01370670553296804</v>
+        <v>0.2186889946460724</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>0.01994789391756058</v>
+        <v>25.33744812011719</v>
       </c>
       <c r="B486" t="n">
-        <v>0.0137047003954649</v>
+        <v>0.2177889943122864</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>0.01994874142110348</v>
+        <v>25.33502006530762</v>
       </c>
       <c r="B487" t="n">
-        <v>0.0137047003954649</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>0.01994816027581692</v>
+        <v>25.32426071166992</v>
       </c>
       <c r="B488" t="n">
-        <v>0.0137047003954649</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>0.01994755864143372</v>
+        <v>25.35106658935547</v>
       </c>
       <c r="B489" t="n">
-        <v>0.01609526760876179</v>
+        <v>25.9242992401123</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>0.01994755864143372</v>
+        <v>25.35106658935547</v>
       </c>
       <c r="B490" t="n">
-        <v>0.0163620226085186</v>
+        <v>25.91720008850098</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>0.01995613798499107</v>
+        <v>25.46041107177734</v>
       </c>
       <c r="B491" t="n">
-        <v>0.01808388531208038</v>
+        <v>25.88750076293945</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>0.01995613798499107</v>
+        <v>25.46041107177734</v>
       </c>
       <c r="B492" t="n">
-        <v>0.01823805458843708</v>
+        <v>25.88500022888184</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>0.01995613798499107</v>
+        <v>25.46043014526367</v>
       </c>
       <c r="B493" t="n">
-        <v>0.01860406063497066</v>
+        <v>25.87899971008301</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>0.02009260654449463</v>
+        <v>25.56506729125977</v>
       </c>
       <c r="B494" t="n">
-        <v>0.01946699060499668</v>
+        <v>25.86440086364746</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>0.02009200677275658</v>
+        <v>25.56151390075684</v>
       </c>
       <c r="B495" t="n">
-        <v>0.0195563267916441</v>
+        <v>25.86289978027344</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>0.02009107731282711</v>
+        <v>25.53217315673828</v>
       </c>
       <c r="B496" t="n">
-        <v>0.01967124454677105</v>
+        <v>25.86090087890625</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>0.02009210176765919</v>
+        <v>25.54412651062012</v>
       </c>
       <c r="B497" t="n">
-        <v>0.01973374560475349</v>
+        <v>25.85939979553223</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>0.02009089477360249</v>
+        <v>25.5511646270752</v>
       </c>
       <c r="B498" t="n">
-        <v>0.01982808113098145</v>
+        <v>25.8577995300293</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>0.0200938992202282</v>
+        <v>25.63186264038086</v>
       </c>
       <c r="B499" t="n">
-        <v>0.02008375152945518</v>
+        <v>25.85429954528809</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>0.02014050260186195</v>
+        <v>25.75466918945312</v>
       </c>
       <c r="B500" t="n">
-        <v>0.02025525458157063</v>
+        <v>25.85079956054688</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>0.02014050260186195</v>
+        <v>25.75466918945312</v>
       </c>
       <c r="B501" t="n">
-        <v>0.02028700523078442</v>
+        <v>25.85029983520508</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>0.02014302276074886</v>
+        <v>25.78691291809082</v>
       </c>
       <c r="B502" t="n">
-        <v>0.02042517438530922</v>
+        <v>25.84779930114746</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>0.02014191448688507</v>
+        <v>25.77643585205078</v>
       </c>
       <c r="B503" t="n">
-        <v>0.02058826014399529</v>
+        <v>25.84480094909668</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>0.02014191448688507</v>
+        <v>25.77643585205078</v>
       </c>
       <c r="B504" t="n">
-        <v>0.02061192691326141</v>
+        <v>25.84480094909668</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>0.02014117687940598</v>
+        <v>25.76683044433594</v>
       </c>
       <c r="B505" t="n">
-        <v>0.02078517898917198</v>
+        <v>25.84119987487793</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>0.02014117687940598</v>
+        <v>25.76683044433594</v>
       </c>
       <c r="B506" t="n">
-        <v>0.02080843038856983</v>
+        <v>25.84119987487793</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>0.02014101482927799</v>
+        <v>25.76852798461914</v>
       </c>
       <c r="B507" t="n">
-        <v>0.02087643183767796</v>
+        <v>25.84020042419434</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>0.02013997547328472</v>
+        <v>25.74726676940918</v>
       </c>
       <c r="B508" t="n">
-        <v>0.02096309140324593</v>
+        <v>25.83919906616211</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>0.02013997547328472</v>
+        <v>25.74726867675781</v>
       </c>
       <c r="B509" t="n">
-        <v>0.02096826583147049</v>
+        <v>25.83919906616211</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>0.02013968117535114</v>
+        <v>25.73135185241699</v>
       </c>
       <c r="B510" t="n">
-        <v>0.02099318243563175</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>0.02013967372477055</v>
+        <v>25.71747779846191</v>
       </c>
       <c r="B511" t="n">
-        <v>0.02099660038948059</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>0.01999720931053162</v>
+        <v>25.66460609436035</v>
       </c>
       <c r="B512" t="n">
-        <v>0.02107267640531063</v>
+        <v>25.83620071411133</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>0.0200035385787487</v>
+        <v>25.67197418212891</v>
       </c>
       <c r="B513" t="n">
-        <v>0.0211050920188427</v>
+        <v>25.83620071411133</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>0.02000240050256252</v>
+        <v>25.603515625</v>
       </c>
       <c r="B514" t="n">
-        <v>0.02112309262156487</v>
+        <v>25.83620071411133</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>0.02000322006642818</v>
+        <v>25.63088035583496</v>
       </c>
       <c r="B515" t="n">
-        <v>0.02113800868391991</v>
+        <v>25.83620071411133</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>0.0199749767780304</v>
+        <v>25.56978034973145</v>
       </c>
       <c r="B516" t="n">
-        <v>0.02116550877690315</v>
+        <v>25.8356990814209</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>0.01997578516602516</v>
+        <v>25.56521987915039</v>
       </c>
       <c r="B517" t="n">
-        <v>0.02116241678595543</v>
+        <v>25.8356990814209</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>0.0198964923620224</v>
+        <v>25.29187965393066</v>
       </c>
       <c r="B518" t="n">
-        <v>0.02121892757713795</v>
+        <v>25.8346996307373</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>0.01990939490497112</v>
+        <v>25.32111167907715</v>
       </c>
       <c r="B519" t="n">
-        <v>0.0212459173053503</v>
+        <v>25.83419990539551</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>0.01990939490497112</v>
+        <v>25.32111167907715</v>
       </c>
       <c r="B520" t="n">
-        <v>0.02126250043511391</v>
+        <v>25.8346996307373</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>0.01990096271038055</v>
+        <v>25.32999992370605</v>
       </c>
       <c r="B521" t="n">
-        <v>0.02130050025880337</v>
+        <v>25.83320045471191</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>0.01990760490298271</v>
+        <v>25.33847045898438</v>
       </c>
       <c r="B522" t="n">
-        <v>0.02132333256304264</v>
+        <v>25.83320045471191</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>0.01990760490298271</v>
+        <v>25.33847045898438</v>
       </c>
       <c r="B523" t="n">
-        <v>0.02131900005042553</v>
+        <v>25.83320045471191</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>0.0199035108089447</v>
+        <v>25.33504867553711</v>
       </c>
       <c r="B524" t="n">
-        <v>0.02131691761314869</v>
+        <v>25.83320045471191</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>0.01989958807826042</v>
+        <v>25.31409454345703</v>
       </c>
       <c r="B525" t="n">
-        <v>0.02138291671872139</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>0.0201495885848999</v>
+        <v>25.39935874938965</v>
       </c>
       <c r="B526" t="n">
-        <v>0.02137483283877373</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>0.02014992758631706</v>
+        <v>25.39962768554688</v>
       </c>
       <c r="B527" t="n">
-        <v>0.0213730838149786</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>0.02014973387122154</v>
+        <v>25.44645118713379</v>
       </c>
       <c r="B528" t="n">
-        <v>0.02138573862612247</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>0.02014351636171341</v>
+        <v>25.49769592285156</v>
       </c>
       <c r="B529" t="n">
-        <v>0.02138858288526535</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>0.02014379575848579</v>
+        <v>25.4915657043457</v>
       </c>
       <c r="B530" t="n">
-        <v>0.02139132097363472</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>0.02011820860207081</v>
+        <v>25.43806076049805</v>
       </c>
       <c r="B531" t="n">
-        <v>0.02140215411782265</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>0.02016344107687473</v>
+        <v>25.68466567993164</v>
       </c>
       <c r="B532" t="n">
-        <v>0.02140690572559834</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>0.02016344107687473</v>
+        <v>25.68466567993164</v>
       </c>
       <c r="B533" t="n">
-        <v>0.02141348831355572</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>0.02016344107687473</v>
+        <v>25.68466567993164</v>
       </c>
       <c r="B534" t="n">
-        <v>0.02140823751688004</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>0.02016344107687473</v>
+        <v>25.68466567993164</v>
       </c>
       <c r="B535" t="n">
-        <v>0.02142098732292652</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>0.02016354352235794</v>
+        <v>25.69281005859375</v>
       </c>
       <c r="B536" t="n">
-        <v>0.02142573893070221</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>0.02016843855381012</v>
+        <v>25.69439125061035</v>
       </c>
       <c r="B537" t="n">
-        <v>0.0214267373085022</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>0.02016843855381012</v>
+        <v>25.69439125061035</v>
       </c>
       <c r="B538" t="n">
-        <v>0.02142523787915707</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>0.02016648463904858</v>
+        <v>25.69737434387207</v>
       </c>
       <c r="B539" t="n">
-        <v>0.02141090482473373</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>0.02016799338161945</v>
+        <v>25.69286918640137</v>
       </c>
       <c r="B540" t="n">
-        <v>0.02141657099127769</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>0.02016879990696907</v>
+        <v>25.70934295654297</v>
       </c>
       <c r="B541" t="n">
-        <v>0.02143082208931446</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>0.02016795426607132</v>
+        <v>25.72331047058105</v>
       </c>
       <c r="B542" t="n">
-        <v>0.02143865451216698</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>0.02013414166867733</v>
+        <v>25.68305587768555</v>
       </c>
       <c r="B543" t="n">
-        <v>0.02143357135355473</v>
+        <v>25.8306999206543</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>0.02013442292809486</v>
+        <v>25.69338607788086</v>
       </c>
       <c r="B544" t="n">
-        <v>0.02141923829913139</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>0.02013512142002583</v>
+        <v>25.70822906494141</v>
       </c>
       <c r="B545" t="n">
-        <v>0.02141339331865311</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>0.02013977617025375</v>
+        <v>25.7898120880127</v>
       </c>
       <c r="B546" t="n">
-        <v>0.02141739241778851</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>0.02014412544667721</v>
+        <v>25.80298614501953</v>
       </c>
       <c r="B547" t="n">
-        <v>0.02142389304935932</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>0.02014177665114403</v>
+        <v>25.74150848388672</v>
       </c>
       <c r="B548" t="n">
-        <v>0.0214203093200922</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>0.02012919262051582</v>
+        <v>25.6102409362793</v>
       </c>
       <c r="B549" t="n">
-        <v>0.02143655903637409</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>0.02012919262051582</v>
+        <v>25.6102409362793</v>
       </c>
       <c r="B550" t="n">
-        <v>0.02144064195454121</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>0.02002572454512119</v>
+        <v>25.28256034851074</v>
       </c>
       <c r="B551" t="n">
-        <v>0.02144189178943634</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>0.02002488262951374</v>
+        <v>25.27209663391113</v>
       </c>
       <c r="B552" t="n">
-        <v>0.02144472673535347</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>0.02002474293112755</v>
+        <v>25.2696647644043</v>
       </c>
       <c r="B553" t="n">
-        <v>0.02144097536802292</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>0.02002528309822083</v>
+        <v>25.28037643432617</v>
       </c>
       <c r="B554" t="n">
-        <v>0.02145455963909626</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>0.02002345211803913</v>
+        <v>25.27585983276367</v>
       </c>
       <c r="B555" t="n">
-        <v>0.02143789269030094</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>0.02002345211803913</v>
+        <v>25.27585983276367</v>
       </c>
       <c r="B556" t="n">
-        <v>0.02142914198338985</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>0.02002936601638794</v>
+        <v>25.32209205627441</v>
       </c>
       <c r="B557" t="n">
-        <v>0.02143105864524841</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>0.02002876438200474</v>
+        <v>25.30814743041992</v>
       </c>
       <c r="B558" t="n">
-        <v>0.0214212853461504</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>0.02002876438200474</v>
+        <v>25.30814743041992</v>
       </c>
       <c r="B559" t="n">
-        <v>0.02144561894237995</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>0.0194255392998457</v>
+        <v>25.53606224060059</v>
       </c>
       <c r="B560" t="n">
-        <v>0.02145730890333652</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>0.01952817849814892</v>
+        <v>27.08542633056641</v>
       </c>
       <c r="B561" t="n">
-        <v>0.02145830914378166</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>0.01952817849814892</v>
+        <v>27.08542633056641</v>
       </c>
       <c r="B562" t="n">
-        <v>0.02145047672092915</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>0.01974082365632057</v>
+        <v>27.243896484375</v>
       </c>
       <c r="B563" t="n">
-        <v>0.02144955843687057</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>0.01960551366209984</v>
+        <v>27.16550827026367</v>
       </c>
       <c r="B564" t="n">
-        <v>0.02144872583448887</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>0.02041658200323582</v>
+        <v>27.05154609680176</v>
       </c>
       <c r="B565" t="n">
-        <v>0.02144939266145229</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>0.01896517165005207</v>
+        <v>22.39031982421875</v>
       </c>
       <c r="B566" t="n">
-        <v>0.02144911885261536</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>0.01900119334459305</v>
+        <v>24.88501739501953</v>
       </c>
       <c r="B567" t="n">
-        <v>0.02144545130431652</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>0.0170668251812458</v>
+        <v>25.2103214263916</v>
       </c>
       <c r="B568" t="n">
-        <v>0.02143311873078346</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>0.0170668251812458</v>
+        <v>25.2103214263916</v>
       </c>
       <c r="B569" t="n">
-        <v>0.02143995277583599</v>
+        <v>25.83119964599609</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>0.01709321513772011</v>
+        <v>25.17996978759766</v>
       </c>
       <c r="B570" t="n">
-        <v>0.02141962014138699</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>0.01709321513772011</v>
+        <v>25.17996978759766</v>
       </c>
       <c r="B571" t="n">
-        <v>0.02141964249312878</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>0.01705301366746426</v>
+        <v>25.06686210632324</v>
       </c>
       <c r="B572" t="n">
-        <v>0.01681061089038849</v>
+        <v>0.140732005238533</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>0.01698136888444424</v>
+        <v>24.64908981323242</v>
       </c>
       <c r="B573" t="n">
-        <v>0.01520225591957569</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>0.01698136888444424</v>
+        <v>24.64908981323242</v>
       </c>
       <c r="B574" t="n">
-        <v>0.01520225591957569</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>0.0141984336078167</v>
+        <v>1.067385315895081</v>
       </c>
       <c r="B575" t="n">
-        <v>0.01457133237272501</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>0.01458110474050045</v>
+        <v>0.9086504578590393</v>
       </c>
       <c r="B576" t="n">
-        <v>0.01422482542693615</v>
+        <v>0.2409970015287399</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>0.01465621497482061</v>
+        <v>0.9136421084403992</v>
       </c>
       <c r="B577" t="n">
-        <v>0.01422482542693615</v>
+        <v>26.99130058288574</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>0.01464278437197208</v>
+        <v>0.9564318060874939</v>
       </c>
       <c r="B578" t="n">
-        <v>0.01412868406623602</v>
+        <v>0.2407680004835129</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>0.01464278437197208</v>
+        <v>0.9564318060874939</v>
       </c>
       <c r="B579" t="n">
-        <v>0.01412868406623602</v>
+        <v>26.99130058288574</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>0.0145253986120224</v>
+        <v>0.9579316377639771</v>
       </c>
       <c r="B580" t="n">
-        <v>0.01397445891052485</v>
+        <v>26.99180030822754</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>0.01449686847627163</v>
+        <v>0.9662738442420959</v>
       </c>
       <c r="B581" t="n">
-        <v>0.01388632971793413</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>0.01449686847627163</v>
+        <v>0.9662738442420959</v>
       </c>
       <c r="B582" t="n">
-        <v>0.0138462707400322</v>
+        <v>0.2285609990358353</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>0.01365566253662109</v>
+        <v>2.568479776382446</v>
       </c>
       <c r="B583" t="n">
-        <v>0.01383225060999393</v>
+        <v>25.09079933166504</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>0.01429923437535763</v>
+        <v>1.644810438156128</v>
       </c>
       <c r="B584" t="n">
-        <v>0.0137971518561244</v>
+        <v>0.243805006146431</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>0.01490836404263973</v>
+        <v>1.789901971817017</v>
       </c>
       <c r="B585" t="n">
-        <v>0.0137971518561244</v>
+        <v>25.08979988098145</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>0.01414505206048489</v>
+        <v>1.459040522575378</v>
       </c>
       <c r="B586" t="n">
-        <v>0.01377912145107985</v>
+        <v>25.09029960632324</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>0.01414505206048489</v>
+        <v>1.459040522575378</v>
       </c>
       <c r="B587" t="n">
-        <v>0.01377912145107985</v>
+        <v>25.09029960632324</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>0.01414505206048489</v>
+        <v>1.459040522575378</v>
       </c>
       <c r="B588" t="n">
-        <v>0.01376910414546728</v>
+        <v>0.24235500395298</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>0.01416062191128731</v>
+        <v>1.459713935852051</v>
       </c>
       <c r="B589" t="n">
-        <v>0.01376710087060928</v>
+        <v>0.2445529997348785</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>0.01414602622389793</v>
+        <v>1.46412181854248</v>
       </c>
       <c r="B590" t="n">
-        <v>0.01374907046556473</v>
+        <v>0.2469020038843155</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>0.01415852457284927</v>
+        <v>1.462948322296143</v>
       </c>
       <c r="B591" t="n">
-        <v>0.0137550812214613</v>
+        <v>0.2469789981842041</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>0.01443304494023323</v>
+        <v>1.271834969520569</v>
       </c>
       <c r="B592" t="n">
-        <v>0.01373799238353968</v>
+        <v>25.09029960632324</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>0.01353511773049831</v>
+        <v>1.153341770172119</v>
       </c>
       <c r="B593" t="n">
-        <v>0.01373492553830147</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>0.01353511773049831</v>
+        <v>1.153341770172119</v>
       </c>
       <c r="B594" t="n">
-        <v>0.01374294236302376</v>
+        <v>0.2441709935665131</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>0.01353511773049831</v>
+        <v>1.153341770172119</v>
       </c>
       <c r="B595" t="n">
-        <v>0.01374294236302376</v>
+        <v>0.2441709935665131</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>0.01352324336767197</v>
+        <v>1.153448462486267</v>
       </c>
       <c r="B596" t="n">
-        <v>0.01373492553830147</v>
+        <v>0.2420500069856644</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>0.01356029510498047</v>
+        <v>1.153001070022583</v>
       </c>
       <c r="B597" t="n">
-        <v>0.0137469507753849</v>
+        <v>25.09079933166504</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>0.01355423592031002</v>
+        <v>1.154703497886658</v>
       </c>
       <c r="B598" t="n">
-        <v>0.01372490450739861</v>
+        <v>26.99580001831055</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>0.01357238180935383</v>
+        <v>1.153584003448486</v>
       </c>
       <c r="B599" t="n">
-        <v>0.0137358671054244</v>
+        <v>0.2497860044240952</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>0.01357238180935383</v>
+        <v>1.153584003448486</v>
       </c>
       <c r="B600" t="n">
-        <v>0.0137358671054244</v>
+        <v>0.2497860044240952</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>0.01357238180935383</v>
+        <v>1.153584003448486</v>
       </c>
       <c r="B601" t="n">
-        <v>0.0137358671054244</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>0.01540602464228868</v>
+        <v>1.121978044509888</v>
       </c>
       <c r="B602" t="n">
-        <v>0.01371982973068953</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>0.01475209183990955</v>
+        <v>1.05701220035553</v>
       </c>
       <c r="B603" t="n">
-        <v>0.01371982973068953</v>
+        <v>26.95759963989258</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>0.01498717628419399</v>
+        <v>0.9235438108444214</v>
       </c>
       <c r="B604" t="n">
-        <v>0.01372985355556011</v>
+        <v>0.2511599957942963</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>0.01503873430192471</v>
+        <v>1.21789288520813</v>
       </c>
       <c r="B605" t="n">
-        <v>0.01372985355556011</v>
+        <v>26.95709991455078</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>0.01624706201255322</v>
+        <v>0.997952401638031</v>
       </c>
       <c r="B606" t="n">
-        <v>0.01371582038700581</v>
+        <v>0.2511599957942963</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>0.01462217047810555</v>
+        <v>0.8862829208374023</v>
       </c>
       <c r="B607" t="n">
-        <v>0.01371582038700581</v>
+        <v>25.09079933166504</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>0.01435043569654226</v>
+        <v>0.9323272109031677</v>
       </c>
       <c r="B608" t="n">
-        <v>0.01371181104332209</v>
+        <v>25.08979988098145</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>0.01498340349644423</v>
+        <v>7.650474548339844</v>
       </c>
       <c r="B609" t="n">
-        <v>0.01371982973068953</v>
+        <v>0.2453919947147369</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>0.01500445976853371</v>
+        <v>7.641594409942627</v>
       </c>
       <c r="B610" t="n">
-        <v>0.01371582038700581</v>
+        <v>0.2475129961967468</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>0.01500445976853371</v>
+        <v>7.641616344451904</v>
       </c>
       <c r="B611" t="n">
-        <v>0.01371582038700581</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>0.01494721882045269</v>
+        <v>7.796637535095215</v>
       </c>
       <c r="B612" t="n">
-        <v>0.01371982973068953</v>
+        <v>0.2469020038843155</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>0.01495276298373938</v>
+        <v>7.730008602142334</v>
       </c>
       <c r="B613" t="n">
-        <v>0.01372383907437325</v>
+        <v>0.2460779994726181</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>0.01485826447606087</v>
+        <v>7.541953563690186</v>
       </c>
       <c r="B614" t="n">
-        <v>0.01371873542666435</v>
+        <v>0.2428890019655228</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>0.01513134315609932</v>
+        <v>14.26016807556152</v>
       </c>
       <c r="B615" t="n">
-        <v>0.01372876111418009</v>
+        <v>25.09079933166504</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>0.01563630811870098</v>
+        <v>12.6456127166748</v>
       </c>
       <c r="B616" t="n">
-        <v>0.01371873542666435</v>
+        <v>0.2480469942092896</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>0.01946169137954712</v>
+        <v>21.94959259033203</v>
       </c>
       <c r="B617" t="n">
-        <v>0.01371873542666435</v>
+        <v>25.09129905700684</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>0.02004170790314674</v>
+        <v>25.13400840759277</v>
       </c>
       <c r="B618" t="n">
-        <v>0.01372167933732271</v>
+        <v>0.2486570030450821</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>0.02004030533134937</v>
+        <v>25.12329292297363</v>
       </c>
       <c r="B619" t="n">
-        <v>0.01371365785598755</v>
+        <v>0.2133789956569672</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>0.02003944851458073</v>
+        <v>25.11354064941406</v>
       </c>
       <c r="B620" t="n">
-        <v>0.01371365785598755</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>0.02004949562251568</v>
+        <v>25.20369338989258</v>
       </c>
       <c r="B621" t="n">
-        <v>0.01579893007874489</v>
+        <v>25.92329978942871</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>0.0200476199388504</v>
+        <v>25.23269844055176</v>
       </c>
       <c r="B622" t="n">
-        <v>0.01733837276697159</v>
+        <v>25.89559936523438</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>0.02004806883633137</v>
+        <v>25.26270294189453</v>
       </c>
       <c r="B623" t="n">
-        <v>0.01815688610076904</v>
+        <v>25.88150024414062</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>0.0200812965631485</v>
+        <v>25.30588722229004</v>
       </c>
       <c r="B624" t="n">
-        <v>0.01888689771294594</v>
+        <v>25.86940002441406</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>0.0200848150998354</v>
+        <v>25.34557723999023</v>
       </c>
       <c r="B625" t="n">
-        <v>0.01915315352380276</v>
+        <v>25.86490058898926</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>0.02008644863963127</v>
+        <v>25.41318893432617</v>
       </c>
       <c r="B626" t="n">
-        <v>0.01958382315933704</v>
+        <v>25.8572998046875</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>0.02006987109780312</v>
+        <v>25.39057731628418</v>
       </c>
       <c r="B627" t="n">
-        <v>0.02004125155508518</v>
+        <v>25.84980010986328</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>0.02006515488028526</v>
+        <v>25.42308807373047</v>
       </c>
       <c r="B628" t="n">
-        <v>0.02048550732433796</v>
+        <v>25.84180068969727</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>0.02006515301764011</v>
+        <v>25.42307662963867</v>
       </c>
       <c r="B629" t="n">
-        <v>0.02058817632496357</v>
+        <v>25.84070014953613</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>0.02006524987518787</v>
+        <v>25.43068313598633</v>
       </c>
       <c r="B630" t="n">
-        <v>0.02090968191623688</v>
+        <v>25.8356990814209</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>0.02006294578313828</v>
+        <v>25.46637725830078</v>
       </c>
       <c r="B631" t="n">
-        <v>0.02094276621937752</v>
+        <v>25.8351993560791</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>0.02004890888929367</v>
+        <v>25.48095893859863</v>
       </c>
       <c r="B632" t="n">
-        <v>0.02109534293413162</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>0.02004904672503471</v>
+        <v>25.48409843444824</v>
       </c>
       <c r="B633" t="n">
-        <v>0.02110225893557072</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>0.02004749327898026</v>
+        <v>25.44976997375488</v>
       </c>
       <c r="B634" t="n">
-        <v>0.02114259265363216</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>0.02009729668498039</v>
+        <v>25.65285301208496</v>
       </c>
       <c r="B635" t="n">
-        <v>0.02129459381103516</v>
+        <v>25.82869911193848</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>0.02009552903473377</v>
+        <v>25.63426780700684</v>
       </c>
       <c r="B636" t="n">
-        <v>0.02130934409797192</v>
+        <v>25.82869911193848</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>0.02009805105626583</v>
+        <v>25.63429069519043</v>
       </c>
       <c r="B637" t="n">
-        <v>0.02132983319461346</v>
+        <v>25.82869911193848</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>0.02009796164929867</v>
+        <v>25.64493751525879</v>
       </c>
       <c r="B638" t="n">
-        <v>0.02133041620254517</v>
+        <v>25.82819938659668</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>0.02009598724544048</v>
+        <v>25.61495780944824</v>
       </c>
       <c r="B639" t="n">
-        <v>0.02133250050246716</v>
+        <v>25.82819938659668</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>0.02009793929755688</v>
+        <v>25.59029388427734</v>
       </c>
       <c r="B640" t="n">
-        <v>0.02138449996709824</v>
+        <v>25.82769966125488</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>0.02011711895465851</v>
+        <v>25.55110740661621</v>
       </c>
       <c r="B641" t="n">
-        <v>0.02139741741120815</v>
+        <v>25.82710075378418</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>0.02018666639924049</v>
+        <v>25.73231315612793</v>
       </c>
       <c r="B642" t="n">
-        <v>0.02141808345913887</v>
+        <v>25.82710075378418</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>0.0201866440474987</v>
+        <v>25.7327823638916</v>
       </c>
       <c r="B643" t="n">
-        <v>0.02142198756337166</v>
+        <v>25.82769966125488</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>0.02015528455376625</v>
+        <v>25.56832695007324</v>
       </c>
       <c r="B644" t="n">
-        <v>0.02142240479588509</v>
+        <v>25.82769966125488</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>0.02015528455376625</v>
+        <v>25.56832313537598</v>
       </c>
       <c r="B645" t="n">
-        <v>0.02143990434706211</v>
+        <v>25.82710075378418</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>0.02015828900039196</v>
+        <v>25.57266616821289</v>
       </c>
       <c r="B646" t="n">
-        <v>0.02143132127821445</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>0.02015865594148636</v>
+        <v>25.60980415344238</v>
       </c>
       <c r="B647" t="n">
-        <v>0.02143973857164383</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>0.02015865594148636</v>
+        <v>25.60980987548828</v>
       </c>
       <c r="B648" t="n">
-        <v>0.02144773863255978</v>
+        <v>25.82710075378418</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>0.02018203213810921</v>
+        <v>25.65072822570801</v>
       </c>
       <c r="B649" t="n">
-        <v>0.02145482040941715</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>0.02017839998006821</v>
+        <v>25.72273826599121</v>
       </c>
       <c r="B650" t="n">
-        <v>0.02142798900604248</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>0.02017839439213276</v>
+        <v>25.72212982177734</v>
       </c>
       <c r="B651" t="n">
-        <v>0.02143481001257896</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>0.02011327818036079</v>
+        <v>25.44430923461914</v>
       </c>
       <c r="B652" t="n">
-        <v>0.02141764387488365</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>0.02011327818036079</v>
+        <v>25.4443531036377</v>
       </c>
       <c r="B653" t="n">
-        <v>0.02141897566616535</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>0.02015329711139202</v>
+        <v>25.61143493652344</v>
       </c>
       <c r="B654" t="n">
-        <v>0.0214360598474741</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>0.02015329711139202</v>
+        <v>25.61143493652344</v>
       </c>
       <c r="B655" t="n">
-        <v>0.02144222520291805</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>0.0201526153832674</v>
+        <v>25.61386489868164</v>
       </c>
       <c r="B656" t="n">
-        <v>0.02144114300608635</v>
+        <v>25.82559967041016</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>0.02015283890068531</v>
+        <v>25.61563110351562</v>
       </c>
       <c r="B657" t="n">
-        <v>0.02144114300608635</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>0.02015318535268307</v>
+        <v>25.62867546081543</v>
       </c>
       <c r="B658" t="n">
-        <v>0.02144197560846806</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>0.0201547984033823</v>
+        <v>25.59122467041016</v>
       </c>
       <c r="B659" t="n">
-        <v>0.02143832109868526</v>
+        <v>25.82559967041016</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>0.02015550248324871</v>
+        <v>25.61908912658691</v>
       </c>
       <c r="B660" t="n">
-        <v>0.02143172547221184</v>
+        <v>25.82559967041016</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>0.0200300607830286</v>
+        <v>25.14961051940918</v>
       </c>
       <c r="B661" t="n">
-        <v>0.02143998816609383</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>0.01999208703637123</v>
+        <v>25.05628395080566</v>
       </c>
       <c r="B662" t="n">
-        <v>0.02146189287304878</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>0.01983382552862167</v>
+        <v>25.47046852111816</v>
       </c>
       <c r="B663" t="n">
-        <v>0.02144711837172508</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>0.01797641813755035</v>
+        <v>24.93697547912598</v>
       </c>
       <c r="B664" t="n">
-        <v>0.02144047617912292</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>0.01754404045641422</v>
+        <v>20.89736557006836</v>
       </c>
       <c r="B665" t="n">
-        <v>0.021450225263834</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>0.01754404045641422</v>
+        <v>20.89736557006836</v>
       </c>
       <c r="B666" t="n">
-        <v>0.02144903503358364</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>0.01754756644368172</v>
+        <v>20.89949989318848</v>
       </c>
       <c r="B667" t="n">
-        <v>0.02145364321768284</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>0.01754331588745117</v>
+        <v>20.86654472351074</v>
       </c>
       <c r="B668" t="n">
-        <v>0.02144839242100716</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>0.01751643605530262</v>
+        <v>20.83888053894043</v>
       </c>
       <c r="B669" t="n">
-        <v>0.02144097536802292</v>
+        <v>25.82609939575195</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>0.01749049499630928</v>
+        <v>20.88542175292969</v>
       </c>
       <c r="B670" t="n">
-        <v>0.01588926278054714</v>
+        <v>0.2142180055379868</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>0.01744900643825531</v>
+        <v>20.78621864318848</v>
       </c>
       <c r="B671" t="n">
-        <v>0.01490982808172703</v>
+        <v>0.22325100004673</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>0.01746424846351147</v>
+        <v>20.79216384887695</v>
       </c>
       <c r="B672" t="n">
-        <v>0.01490982808172703</v>
+        <v>26.95809936523438</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>0.0175487045198679</v>
+        <v>20.76331901550293</v>
       </c>
       <c r="B673" t="n">
-        <v>0.01490982808172703</v>
+        <v>26.95809936523438</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>0.01753485016524792</v>
+        <v>21.13249015808105</v>
       </c>
       <c r="B674" t="n">
-        <v>0.01461852993816137</v>
+        <v>0.2218780070543289</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>0.01704882457852364</v>
+        <v>14.8792085647583</v>
       </c>
       <c r="B675" t="n">
-        <v>0.014403086155653</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>0.01664957031607628</v>
+        <v>9.804586410522461</v>
       </c>
       <c r="B676" t="n">
-        <v>0.01425086334347725</v>
+        <v>0.1848749965429306</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>0.01561947073787451</v>
+        <v>1.864479303359985</v>
       </c>
       <c r="B677" t="n">
-        <v>0.01425086334347725</v>
+        <v>0.1848749965429306</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>0.01546866167336702</v>
+        <v>1.674216866493225</v>
       </c>
       <c r="B678" t="n">
-        <v>0.0140986405313015</v>
+        <v>0.1630250066518784</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>0.01549612917006016</v>
+        <v>1.674298286437988</v>
       </c>
       <c r="B679" t="n">
-        <v>0.01398046780377626</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>0.01549612917006016</v>
+        <v>1.674297094345093</v>
       </c>
       <c r="B680" t="n">
-        <v>0.01391837652772665</v>
+        <v>0.2161870002746582</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>0.01550750248134136</v>
+        <v>1.671560525894165</v>
       </c>
       <c r="B681" t="n">
-        <v>0.01391837652772665</v>
+        <v>0.2161870002746582</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>0.01550750061869621</v>
+        <v>1.67155933380127</v>
       </c>
       <c r="B682" t="n">
-        <v>0.01391837652772665</v>
+        <v>26.95809936523438</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>0.01550817303359509</v>
+        <v>1.671301126480103</v>
       </c>
       <c r="B683" t="n">
-        <v>0.01388232409954071</v>
+        <v>25.09129905700684</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>0.01500512566417456</v>
+        <v>2.087955951690674</v>
       </c>
       <c r="B684" t="n">
-        <v>0.01381222065538168</v>
+        <v>0.2277979999780655</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>0.01505693979561329</v>
+        <v>1.993916749954224</v>
       </c>
       <c r="B685" t="n">
-        <v>0.01381222065538168</v>
+        <v>0.2277979999780655</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>0.01524452958256006</v>
+        <v>2.047569274902344</v>
       </c>
       <c r="B686" t="n">
-        <v>0.01381021831184626</v>
+        <v>0.2274930030107498</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>0.01522294338792562</v>
+        <v>2.050697803497314</v>
       </c>
       <c r="B687" t="n">
-        <v>0.01381021831184626</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>0.01433835830539465</v>
+        <v>1.93161416053772</v>
       </c>
       <c r="B688" t="n">
-        <v>0.0137951485812664</v>
+        <v>0.153549000620842</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>0.01433835830539465</v>
+        <v>1.93161416053772</v>
       </c>
       <c r="B689" t="n">
-        <v>0.0137951485812664</v>
+        <v>0.153549000620842</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>0.01433837693184614</v>
+        <v>1.931618690490723</v>
       </c>
       <c r="B690" t="n">
-        <v>0.0137951485812664</v>
+        <v>0.153549000620842</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>0.01433837693184614</v>
+        <v>1.931618690490723</v>
       </c>
       <c r="B691" t="n">
-        <v>0.0137951485812664</v>
+        <v>26.99640083312988</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>0.01433595828711987</v>
+        <v>1.931623220443726</v>
       </c>
       <c r="B692" t="n">
-        <v>0.01377616822719574</v>
+        <v>0.2319640070199966</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>0.01433014404028654</v>
+        <v>1.931612730026245</v>
       </c>
       <c r="B693" t="n">
-        <v>0.01377616822719574</v>
+        <v>25.09329986572266</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>0.01429181080311537</v>
+        <v>1.940495252609253</v>
       </c>
       <c r="B694" t="n">
-        <v>0.01377110835164785</v>
+        <v>0.2315060049295425</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>0.01429791189730167</v>
+        <v>1.940824031829834</v>
       </c>
       <c r="B695" t="n">
-        <v>0.01377110835164785</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>0.01429255586117506</v>
+        <v>1.898911237716675</v>
       </c>
       <c r="B696" t="n">
-        <v>0.01376203820109367</v>
+        <v>0.2334900051355362</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>0.01403192710131407</v>
+        <v>1.942415475845337</v>
       </c>
       <c r="B697" t="n">
-        <v>0.01375602651387453</v>
+        <v>0.2306820005178452</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>0.01403195969760418</v>
+        <v>1.942428827285767</v>
       </c>
       <c r="B698" t="n">
-        <v>0.01375602651387453</v>
+        <v>25.09180068969727</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>0.01540233567357063</v>
+        <v>2.037535190582275</v>
       </c>
       <c r="B699" t="n">
-        <v>0.01373999565839767</v>
+        <v>0.2362210005521774</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>0.01537707634270191</v>
+        <v>2.034571170806885</v>
       </c>
       <c r="B700" t="n">
-        <v>0.01373999565839767</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>0.01537707541137934</v>
+        <v>2.034571170806885</v>
       </c>
       <c r="B701" t="n">
-        <v>0.01373398490250111</v>
+        <v>0.2129359990358353</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>0.01540414057672024</v>
+        <v>2.03465723991394</v>
       </c>
       <c r="B702" t="n">
-        <v>0.01373492553830147</v>
+        <v>0.2353059947490692</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>0.01539115887135267</v>
+        <v>2.032933235168457</v>
       </c>
       <c r="B703" t="n">
-        <v>0.0137329213321209</v>
+        <v>0.2244569957256317</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>0.01577465794980526</v>
+        <v>1.629196405410767</v>
       </c>
       <c r="B704" t="n">
-        <v>0.01371488347649574</v>
+        <v>0.204132005572319</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>0.01555068138986826</v>
+        <v>1.543471097946167</v>
       </c>
       <c r="B705" t="n">
-        <v>0.01371488347649574</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>0.01454497314989567</v>
+        <v>1.436500787734985</v>
       </c>
       <c r="B706" t="n">
-        <v>0.01371488347649574</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>0.01454497314989567</v>
+        <v>1.436500787734985</v>
       </c>
       <c r="B707" t="n">
-        <v>0.01371287927031517</v>
+        <v>0.2356110066175461</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>0.01437047589570284</v>
+        <v>1.133761167526245</v>
       </c>
       <c r="B708" t="n">
-        <v>0.01371287927031517</v>
+        <v>25.09329986572266</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>0.01453167758882046</v>
+        <v>1.093838453292847</v>
       </c>
       <c r="B709" t="n">
-        <v>0.01371381618082523</v>
+        <v>25.09180068969727</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>0.01367624290287495</v>
+        <v>1.04108464717865</v>
       </c>
       <c r="B710" t="n">
-        <v>0.01371381618082523</v>
+        <v>25.09180068969727</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>0.01367624290287495</v>
+        <v>1.04108464717865</v>
       </c>
       <c r="B711" t="n">
-        <v>0.01372183486819267</v>
+        <v>0.2343139946460724</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>0.01368679385632277</v>
+        <v>1.040959000587463</v>
       </c>
       <c r="B712" t="n">
-        <v>0.01372183486819267</v>
+        <v>0.2335660010576248</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>0.01368185970932245</v>
+        <v>1.041005849838257</v>
       </c>
       <c r="B713" t="n">
-        <v>0.01372183486819267</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>0.01369978301227093</v>
+        <v>1.039560198783875</v>
       </c>
       <c r="B714" t="n">
-        <v>0.01371381618082523</v>
+        <v>0.1678009927272797</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>0.01368731632828712</v>
+        <v>1.039401769638062</v>
       </c>
       <c r="B715" t="n">
-        <v>0.01371381618082523</v>
+        <v>0.1678009927272797</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>0.01367966830730438</v>
+        <v>1.038831353187561</v>
       </c>
       <c r="B716" t="n">
-        <v>0.01371472608298063</v>
+        <v>0.1819919943809509</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>0.01367966830730438</v>
+        <v>1.038831353187561</v>
       </c>
       <c r="B717" t="n">
-        <v>0.01371472608298063</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>0.01349840965121984</v>
+        <v>1.040939092636108</v>
       </c>
       <c r="B718" t="n">
-        <v>0.01372475083917379</v>
+        <v>0.2112579941749573</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>0.0138279851526022</v>
+        <v>0.9807575941085815</v>
       </c>
       <c r="B719" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>0.01404987741261721</v>
+        <v>0.9717509746551514</v>
       </c>
       <c r="B720" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>0.01404987741261721</v>
+        <v>0.9717509746551514</v>
       </c>
       <c r="B721" t="n">
-        <v>0.01372475083917379</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>0.01317470520734787</v>
+        <v>1.204384326934814</v>
       </c>
       <c r="B722" t="n">
-        <v>0.01371071580797434</v>
+        <v>25.09180068969727</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>0.01480744872242212</v>
+        <v>1.266576051712036</v>
       </c>
       <c r="B723" t="n">
-        <v>0.01370871067047119</v>
+        <v>0.1870730072259903</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>0.01781336776912212</v>
+        <v>3.306753396987915</v>
       </c>
       <c r="B724" t="n">
-        <v>0.01370579749345779</v>
+        <v>0.2356110066175461</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>0.0194855947047472</v>
+        <v>24.52666664123535</v>
       </c>
       <c r="B725" t="n">
-        <v>0.01370579749345779</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>0.01949206925928593</v>
+        <v>24.49424934387207</v>
       </c>
       <c r="B726" t="n">
-        <v>0.01369667984545231</v>
+        <v>0.236068993806839</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>0.01949170045554638</v>
+        <v>24.4894905090332</v>
       </c>
       <c r="B727" t="n">
-        <v>0.01369667984545231</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>0.01949565671384335</v>
+        <v>24.53085708618164</v>
       </c>
       <c r="B728" t="n">
-        <v>0.01580426283180714</v>
+        <v>25.91419982910156</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>0.01949578896164894</v>
+        <v>24.53581237792969</v>
       </c>
       <c r="B729" t="n">
-        <v>0.01710611768066883</v>
+        <v>25.89060020446777</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>0.01949578709900379</v>
+        <v>24.53586196899414</v>
       </c>
       <c r="B730" t="n">
-        <v>0.01789131574332714</v>
+        <v>25.87800025939941</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>0.01949578709900379</v>
+        <v>24.53586196899414</v>
       </c>
       <c r="B731" t="n">
-        <v>0.01816965080797672</v>
+        <v>25.87299919128418</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>0.01993218809366226</v>
+        <v>25.06281661987305</v>
       </c>
       <c r="B732" t="n">
-        <v>0.01982333138585091</v>
+        <v>25.84429931640625</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>0.01992420479655266</v>
+        <v>25.04530143737793</v>
       </c>
       <c r="B733" t="n">
-        <v>0.01988574862480164</v>
+        <v>25.84379959106445</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>0.01991608180105686</v>
+        <v>25.07311820983887</v>
       </c>
       <c r="B734" t="n">
-        <v>0.01992583274841309</v>
+        <v>25.84269905090332</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>0.02003964595496655</v>
+        <v>25.51592636108398</v>
       </c>
       <c r="B735" t="n">
-        <v>0.02016725204885006</v>
+        <v>25.83869934082031</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>0.02009273692965508</v>
+        <v>25.67832183837891</v>
       </c>
       <c r="B736" t="n">
-        <v>0.02021175436675549</v>
+        <v>25.83819961547852</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>0.02009273692965508</v>
+        <v>25.67832183837891</v>
       </c>
       <c r="B737" t="n">
-        <v>0.02039175666868687</v>
+        <v>25.8356990814209</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>0.02009071223437786</v>
+        <v>25.66572952270508</v>
       </c>
       <c r="B738" t="n">
-        <v>0.02047117426991463</v>
+        <v>25.83370018005371</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>0.02009188942611217</v>
+        <v>25.67043304443359</v>
       </c>
       <c r="B739" t="n">
-        <v>0.02060242742300034</v>
+        <v>25.83219909667969</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>0.02009066566824913</v>
+        <v>25.66286468505859</v>
       </c>
       <c r="B740" t="n">
-        <v>0.02081251330673695</v>
+        <v>25.82869911193848</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>0.02008545584976673</v>
+        <v>25.64510536193848</v>
       </c>
       <c r="B741" t="n">
-        <v>0.02093493193387985</v>
+        <v>25.82659912109375</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>0.02008768543601036</v>
+        <v>25.59312057495117</v>
       </c>
       <c r="B742" t="n">
-        <v>0.02116751857101917</v>
+        <v>25.82309913635254</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>0.02012495510280132</v>
+        <v>25.48892211914062</v>
       </c>
       <c r="B743" t="n">
-        <v>0.02118775993585587</v>
+        <v>25.82309913635254</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>0.02012185752391815</v>
+        <v>25.43960952758789</v>
       </c>
       <c r="B744" t="n">
-        <v>0.02120317704975605</v>
+        <v>25.82259941101074</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>0.02013190276920795</v>
+        <v>25.53034400939941</v>
       </c>
       <c r="B745" t="n">
-        <v>0.02123600989580154</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>0.02012865804135799</v>
+        <v>25.50406837463379</v>
       </c>
       <c r="B746" t="n">
-        <v>0.02125726081430912</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>0.0201298575848341</v>
+        <v>25.5145320892334</v>
       </c>
       <c r="B747" t="n">
-        <v>0.02129059471189976</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>0.02012878470122814</v>
+        <v>25.51210021972656</v>
       </c>
       <c r="B748" t="n">
-        <v>0.02127684466540813</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>0.02012857235968113</v>
+        <v>25.50138473510742</v>
       </c>
       <c r="B749" t="n">
-        <v>0.02131926082074642</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>0.02012960985302925</v>
+        <v>25.59366798400879</v>
       </c>
       <c r="B750" t="n">
-        <v>0.02137808315455914</v>
+        <v>25.82110023498535</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>0.02012960985302925</v>
+        <v>25.59366798400879</v>
       </c>
       <c r="B751" t="n">
-        <v>0.02138175070285797</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>0.02018080092966557</v>
+        <v>25.65824890136719</v>
       </c>
       <c r="B752" t="n">
-        <v>0.02138608321547508</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>0.02018080092966557</v>
+        <v>25.65824890136719</v>
       </c>
       <c r="B753" t="n">
-        <v>0.02138683386147022</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>0.02018176019191742</v>
+        <v>25.67182159423828</v>
       </c>
       <c r="B754" t="n">
-        <v>0.02140999957919121</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>0.02017981931567192</v>
+        <v>25.75056457519531</v>
       </c>
       <c r="B755" t="n">
-        <v>0.02143541723489761</v>
+        <v>25.82110023498535</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>0.02011027745902538</v>
+        <v>25.42425727844238</v>
       </c>
       <c r="B756" t="n">
-        <v>0.02143448777496815</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>0.02011027745902538</v>
+        <v>25.42425727844238</v>
       </c>
       <c r="B757" t="n">
-        <v>0.02143140509724617</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>0.02011027559638023</v>
+        <v>25.42425727844238</v>
       </c>
       <c r="B758" t="n">
-        <v>0.02143323794007301</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>0.02011027559638023</v>
+        <v>25.42425727844238</v>
       </c>
       <c r="B759" t="n">
-        <v>0.02143365517258644</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>0.0201107133179903</v>
+        <v>25.43542671203613</v>
       </c>
       <c r="B760" t="n">
-        <v>0.02144398726522923</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>0.0201107133179903</v>
+        <v>25.4354305267334</v>
       </c>
       <c r="B761" t="n">
-        <v>0.02145182155072689</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>0.02011081762611866</v>
+        <v>25.43978881835938</v>
       </c>
       <c r="B762" t="n">
-        <v>0.02144657075405121</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>0.02011081762611866</v>
+        <v>25.43979072570801</v>
       </c>
       <c r="B763" t="n">
-        <v>0.02144207060337067</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>0.02011081762611866</v>
+        <v>25.43979072570801</v>
       </c>
       <c r="B764" t="n">
-        <v>0.02145707048475742</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>0.02011186070740223</v>
+        <v>25.39240646362305</v>
       </c>
       <c r="B765" t="n">
-        <v>0.0214424766600132</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>0.02006854675710201</v>
+        <v>25.39318466186523</v>
       </c>
       <c r="B766" t="n">
-        <v>0.02143132127821445</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>0.02006558328866959</v>
+        <v>25.38745498657227</v>
       </c>
       <c r="B767" t="n">
-        <v>0.02144657075405121</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>0.02007471583783627</v>
+        <v>25.38261985778809</v>
       </c>
       <c r="B768" t="n">
-        <v>0.0214566420763731</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>0.02006862498819828</v>
+        <v>25.25613594055176</v>
       </c>
       <c r="B769" t="n">
-        <v>0.0214424766600132</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>0.02007263898849487</v>
+        <v>25.29810333251953</v>
       </c>
       <c r="B770" t="n">
-        <v>0.02144322544336319</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>0.02012027427554131</v>
+        <v>25.45117568969727</v>
       </c>
       <c r="B771" t="n">
-        <v>0.02144239284098148</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>0.0201200507581234</v>
+        <v>25.43800163269043</v>
       </c>
       <c r="B772" t="n">
-        <v>0.0214563924819231</v>
+        <v>25.82259941101074</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>0.02011792548000813</v>
+        <v>25.41186714172363</v>
       </c>
       <c r="B773" t="n">
-        <v>0.02145139314234257</v>
+        <v>25.82259941101074</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>0.02011792548000813</v>
+        <v>25.41186332702637</v>
       </c>
       <c r="B774" t="n">
-        <v>0.02145498804748058</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>0.02011615782976151</v>
+        <v>25.3974666595459</v>
       </c>
       <c r="B775" t="n">
-        <v>0.02145489305257797</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>0.02011981047689915</v>
+        <v>25.0560474395752</v>
       </c>
       <c r="B776" t="n">
-        <v>0.0214424766600132</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>0.02005583420395851</v>
+        <v>25.69230270385742</v>
       </c>
       <c r="B777" t="n">
-        <v>0.02143822610378265</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>0.01964595355093479</v>
+        <v>26.83562469482422</v>
       </c>
       <c r="B778" t="n">
-        <v>0.02145680971443653</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>0.01952489651739597</v>
+        <v>26.10678291320801</v>
       </c>
       <c r="B779" t="n">
-        <v>0.02144314348697662</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>0.01862187311053276</v>
+        <v>25.78216171264648</v>
       </c>
       <c r="B780" t="n">
-        <v>0.02142431028187275</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>0.01884156093001366</v>
+        <v>26.56682777404785</v>
       </c>
       <c r="B781" t="n">
-        <v>0.02142047695815563</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>0.01710290089249611</v>
+        <v>25.31382369995117</v>
       </c>
       <c r="B782" t="n">
-        <v>0.02142855897545815</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>0.01673463359475136</v>
+        <v>24.18302726745605</v>
       </c>
       <c r="B783" t="n">
-        <v>0.0214331429451704</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>0.01673463359475136</v>
+        <v>24.18302726745605</v>
       </c>
       <c r="B784" t="n">
-        <v>0.02143105864524841</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>0.01674758084118366</v>
+        <v>24.15529632568359</v>
       </c>
       <c r="B785" t="n">
-        <v>0.02144305966794491</v>
+        <v>25.82209968566895</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>0.01676478050649166</v>
+        <v>24.09910011291504</v>
       </c>
       <c r="B786" t="n">
-        <v>0.02146555855870247</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>0.01677100546658039</v>
+        <v>24.11492919921875</v>
       </c>
       <c r="B787" t="n">
-        <v>0.01691237837076187</v>
+        <v>0.1236720010638237</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>0.01760025136172771</v>
+        <v>25.44614219665527</v>
       </c>
       <c r="B788" t="n">
-        <v>0.01487896684557199</v>
+        <v>0.2179410010576248</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>0.01760025136172771</v>
+        <v>25.44614219665527</v>
       </c>
       <c r="B789" t="n">
-        <v>0.01487896684557199</v>
+        <v>0.2179410010576248</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>0.01444911956787109</v>
+        <v>2.085170269012451</v>
       </c>
       <c r="B790" t="n">
-        <v>0.01424685772508383</v>
+        <v>0.194580003619194</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>0.01443045306950808</v>
+        <v>2.085367918014526</v>
       </c>
       <c r="B791" t="n">
-        <v>0.01413469295948744</v>
+        <v>0.212555006146431</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>0.01443191897124052</v>
+        <v>2.085617542266846</v>
       </c>
       <c r="B792" t="n">
-        <v>0.01413469295948744</v>
+        <v>0.212555006146431</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>0.0144420824944973</v>
+        <v>2.085827112197876</v>
       </c>
       <c r="B793" t="n">
-        <v>0.01413469295948744</v>
+        <v>25.09630012512207</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>0.01448062807321548</v>
+        <v>2.085728883743286</v>
       </c>
       <c r="B794" t="n">
-        <v>0.01413469295948744</v>
+        <v>25.09630012512207</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>0.01448062807321548</v>
+        <v>2.085728883743286</v>
       </c>
       <c r="B795" t="n">
-        <v>0.01413469295948744</v>
+        <v>25.09630012512207</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>0.01453613676130772</v>
+        <v>2.085634231567383</v>
       </c>
       <c r="B796" t="n">
-        <v>0.01400450244545937</v>
+        <v>0.2315829992294312</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>0.01453051250427961</v>
+        <v>2.084975957870483</v>
       </c>
       <c r="B797" t="n">
-        <v>0.01394842006266117</v>
+        <v>0.2303009927272797</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>0.01458900235593319</v>
+        <v>2.074149131774902</v>
       </c>
       <c r="B798" t="n">
-        <v>0.01394842006266117</v>
+        <v>0.2303009927272797</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>0.01458900235593319</v>
+        <v>2.074149131774902</v>
       </c>
       <c r="B799" t="n">
-        <v>0.01394842006266117</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>0.01458900235593319</v>
+        <v>2.074149131774902</v>
       </c>
       <c r="B800" t="n">
-        <v>0.01391236763447523</v>
+        <v>0.2317350059747696</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>0.01445364952087402</v>
+        <v>2.012110948562622</v>
       </c>
       <c r="B801" t="n">
-        <v>0.01388632971793413</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>0.01493261847645044</v>
+        <v>1.478560209274292</v>
       </c>
       <c r="B802" t="n">
-        <v>0.0138492388650775</v>
+        <v>0.1658329963684082</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>0.01489143818616867</v>
+        <v>1.541276931762695</v>
       </c>
       <c r="B803" t="n">
-        <v>0.0138492388650775</v>
+        <v>0.1658329963684082</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>0.0143943652510643</v>
+        <v>1.401965379714966</v>
       </c>
       <c r="B804" t="n">
-        <v>0.01383120846003294</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>0.01468027010560036</v>
+        <v>1.13981032371521</v>
       </c>
       <c r="B805" t="n">
-        <v>0.0137951485812664</v>
+        <v>0.2324980050325394</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>0.01473985146731138</v>
+        <v>1.14065408706665</v>
       </c>
       <c r="B806" t="n">
-        <v>0.01378312800079584</v>
+        <v>0.2331089973449707</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>0.01481644902378321</v>
+        <v>1.141209840774536</v>
       </c>
       <c r="B807" t="n">
-        <v>0.01378312800079584</v>
+        <v>25.09329986572266</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>0.01477072853595018</v>
+        <v>1.144492268562317</v>
       </c>
       <c r="B808" t="n">
-        <v>0.01377711817622185</v>
+        <v>0.2342379987239838</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>0.01477330643683672</v>
+        <v>1.144405364990234</v>
       </c>
       <c r="B809" t="n">
-        <v>0.01377806812524796</v>
+        <v>0.2340849936008453</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>0.01463020034134388</v>
+        <v>1.147255659103394</v>
       </c>
       <c r="B810" t="n">
-        <v>0.01376404147595167</v>
+        <v>0.2356870025396347</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>0.01425734162330627</v>
+        <v>1.074120044708252</v>
       </c>
       <c r="B811" t="n">
-        <v>0.01377606391906738</v>
+        <v>0.236068993806839</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>0.01603349298238754</v>
+        <v>1.737288475036621</v>
       </c>
       <c r="B812" t="n">
-        <v>0.01375602651387453</v>
+        <v>0.1720580011606216</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>0.01543142553418875</v>
+        <v>1.076490879058838</v>
       </c>
       <c r="B813" t="n">
-        <v>0.01375602651387453</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>0.01543142553418875</v>
+        <v>1.076490879058838</v>
       </c>
       <c r="B814" t="n">
-        <v>0.01377300638705492</v>
+        <v>0.241226002573967</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>0.01542828604578972</v>
+        <v>1.07720410823822</v>
       </c>
       <c r="B815" t="n">
-        <v>0.01377300638705492</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>0.01541756093502045</v>
+        <v>1.077054500579834</v>
       </c>
       <c r="B816" t="n">
-        <v>0.01377300638705492</v>
+        <v>26.99080085754395</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>0.01540290098637342</v>
+        <v>1.077040553092957</v>
       </c>
       <c r="B817" t="n">
-        <v>0.01375095918774605</v>
+        <v>0.2378080040216446</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>0.01538207102566957</v>
+        <v>1.076185703277588</v>
       </c>
       <c r="B818" t="n">
-        <v>0.01374895498156548</v>
+        <v>0.1853179931640625</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>0.01541191339492798</v>
+        <v>1.076717019081116</v>
       </c>
       <c r="B819" t="n">
-        <v>0.01374895498156548</v>
+        <v>0.1853179931640625</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>0.01541191339492798</v>
+        <v>1.076717019081116</v>
       </c>
       <c r="B820" t="n">
-        <v>0.01374895498156548</v>
+        <v>0.1853179931640625</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>0.01542115490883589</v>
+        <v>1.076222658157349</v>
       </c>
       <c r="B821" t="n">
-        <v>0.01375897601246834</v>
+        <v>0.2394710034132004</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>0.01450836844742298</v>
+        <v>5.483953475952148</v>
       </c>
       <c r="B822" t="n">
-        <v>0.01373787224292755</v>
+        <v>0.236968994140625</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>0.01401822827756405</v>
+        <v>1.463587999343872</v>
       </c>
       <c r="B823" t="n">
-        <v>0.01374989934265614</v>
+        <v>0.1767580062150955</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>0.01340377889573574</v>
+        <v>1.051375031471252</v>
       </c>
       <c r="B824" t="n">
-        <v>0.01374989934265614</v>
+        <v>0.1767580062150955</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>0.01430115848779678</v>
+        <v>0.9996140599250793</v>
       </c>
       <c r="B825" t="n">
-        <v>0.01374989934265614</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>0.0149504691362381</v>
+        <v>1.108297944068909</v>
       </c>
       <c r="B826" t="n">
-        <v>0.01374188158661127</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>0.0149504691362381</v>
+        <v>1.108297944068909</v>
       </c>
       <c r="B827" t="n">
-        <v>0.01374188158661127</v>
+        <v>0.2277979999780655</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>0.01490586996078491</v>
+        <v>1.104079604148865</v>
       </c>
       <c r="B828" t="n">
-        <v>0.01374188158661127</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>0.01490587089210749</v>
+        <v>1.104079604148865</v>
       </c>
       <c r="B829" t="n">
-        <v>0.01374589093029499</v>
+        <v>0.1831970065832138</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>0.01489114575088024</v>
+        <v>1.105457425117493</v>
       </c>
       <c r="B830" t="n">
-        <v>0.01373987644910812</v>
+        <v>0.2420500069856644</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>0.01490685530006886</v>
+        <v>1.097061991691589</v>
       </c>
       <c r="B831" t="n">
-        <v>0.01373987644910812</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>0.01490685530006886</v>
+        <v>1.097061991691589</v>
       </c>
       <c r="B832" t="n">
-        <v>0.01373987644910812</v>
+        <v>25.09379959106445</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>0.01409232616424561</v>
+        <v>1.191861629486084</v>
       </c>
       <c r="B833" t="n">
-        <v>0.0137358671054244</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>0.01409232616424561</v>
+        <v>1.191861629486084</v>
       </c>
       <c r="B834" t="n">
-        <v>0.01374188158661127</v>
+        <v>0.2403869926929474</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>0.01508253905922174</v>
+        <v>1.45011830329895</v>
       </c>
       <c r="B835" t="n">
-        <v>0.01374188158661127</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>0.01508253905922174</v>
+        <v>1.45011830329895</v>
       </c>
       <c r="B836" t="n">
-        <v>0.01374188158661127</v>
+        <v>25.09280014038086</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>0.01727990619838238</v>
+        <v>8.628823280334473</v>
       </c>
       <c r="B837" t="n">
-        <v>0.01374680735170841</v>
+        <v>0.2425840049982071</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>0.01978924684226513</v>
+        <v>24.4820728302002</v>
       </c>
       <c r="B838" t="n">
-        <v>0.01373678166419268</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>0.01978924684226513</v>
+        <v>24.4820728302002</v>
       </c>
       <c r="B839" t="n">
-        <v>0.01373678166419268</v>
+        <v>25.09230041503906</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>0.01979240030050278</v>
+        <v>24.49686050415039</v>
       </c>
       <c r="B840" t="n">
-        <v>0.01373477652668953</v>
+        <v>0.2004999965429306</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>0.01979509182274342</v>
+        <v>24.49441337585449</v>
       </c>
       <c r="B841" t="n">
-        <v>0.01373477652668953</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>0.01980521157383919</v>
+        <v>24.51383972167969</v>
       </c>
       <c r="B842" t="n">
-        <v>0.01373571809381247</v>
+        <v>0.241455003619194</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>0.01980521157383919</v>
+        <v>24.51383972167969</v>
       </c>
       <c r="B843" t="n">
-        <v>0.01373571809381247</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>0.01980521157383919</v>
+        <v>24.51395606994629</v>
       </c>
       <c r="B844" t="n">
-        <v>0.01373571809381247</v>
+        <v>25.09429931640625</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>0.0198051929473877</v>
+        <v>24.5139045715332</v>
       </c>
       <c r="B845" t="n">
-        <v>0.01579209603369236</v>
+        <v>25.91169929504395</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>0.01977532356977463</v>
+        <v>24.64315032958984</v>
       </c>
       <c r="B846" t="n">
-        <v>0.01672636158764362</v>
+        <v>25.89410018920898</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>0.0200734231621027</v>
+        <v>25.61417198181152</v>
       </c>
       <c r="B847" t="n">
-        <v>0.02007683552801609</v>
+        <v>25.83769989013672</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>0.0200734231621027</v>
+        <v>25.61417198181152</v>
       </c>
       <c r="B848" t="n">
-        <v>0.02021675370633602</v>
+        <v>25.8351993560791</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>0.0200706347823143</v>
+        <v>25.60139846801758</v>
       </c>
       <c r="B849" t="n">
-        <v>0.02045009098947048</v>
+        <v>25.83169937133789</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>0.02008030563592911</v>
+        <v>25.49674606323242</v>
       </c>
       <c r="B850" t="n">
-        <v>0.02093343250453472</v>
+        <v>25.82410049438477</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>0.02008030563592911</v>
+        <v>25.49674606323242</v>
       </c>
       <c r="B851" t="n">
-        <v>0.02097293362021446</v>
+        <v>25.82309913635254</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>0.0200305599719286</v>
+        <v>25.43205451965332</v>
       </c>
       <c r="B852" t="n">
-        <v>0.02108309231698513</v>
+        <v>25.82159996032715</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>0.02004029229283333</v>
+        <v>25.29999732971191</v>
       </c>
       <c r="B853" t="n">
-        <v>0.02117851004004478</v>
+        <v>25.82110023498535</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>0.02000503428280354</v>
+        <v>25.07730484008789</v>
       </c>
       <c r="B854" t="n">
-        <v>0.02124801091849804</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>0.02019309438765049</v>
+        <v>25.73684310913086</v>
       </c>
       <c r="B855" t="n">
-        <v>0.02127801068127155</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>0.02019309438765049</v>
+        <v>25.73684310913086</v>
       </c>
       <c r="B856" t="n">
-        <v>0.02126767672598362</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>0.02019545063376427</v>
+        <v>25.75823020935059</v>
       </c>
       <c r="B857" t="n">
-        <v>0.02126567810773849</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>0.02019545063376427</v>
+        <v>25.75823020935059</v>
       </c>
       <c r="B858" t="n">
-        <v>0.02128809317946434</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>0.02019570022821426</v>
+        <v>25.75520133972168</v>
       </c>
       <c r="B859" t="n">
-        <v>0.02130409330129623</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>0.02019568160176277</v>
+        <v>25.75840759277344</v>
       </c>
       <c r="B860" t="n">
-        <v>0.0213506668806076</v>
+        <v>25.81809997558594</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>0.02019124291837215</v>
+        <v>25.7965087890625</v>
       </c>
       <c r="B861" t="n">
-        <v>0.02134933322668076</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>0.02019124291837215</v>
+        <v>25.7965087890625</v>
       </c>
       <c r="B862" t="n">
-        <v>0.02134583331644535</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>0.02019124105572701</v>
+        <v>25.79652214050293</v>
       </c>
       <c r="B863" t="n">
-        <v>0.0213378332555294</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>0.02019078657031059</v>
+        <v>25.79567527770996</v>
       </c>
       <c r="B864" t="n">
-        <v>0.02134774997830391</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>0.02019307762384415</v>
+        <v>25.79738235473633</v>
       </c>
       <c r="B865" t="n">
-        <v>0.02137674950063229</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>0.02019397355616093</v>
+        <v>25.83215141296387</v>
       </c>
       <c r="B866" t="n">
-        <v>0.021377332508564</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>0.02019397355616093</v>
+        <v>25.83215141296387</v>
       </c>
       <c r="B867" t="n">
-        <v>0.02138499915599823</v>
+        <v>25.81909942626953</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>0.02017886750400066</v>
+        <v>25.87429046630859</v>
       </c>
       <c r="B868" t="n">
-        <v>0.02138148806989193</v>
+        <v>25.81859970092773</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>0.02018646709620953</v>
+        <v>26.01682662963867</v>
       </c>
       <c r="B869" t="n">
-        <v>0.02140098810195923</v>
+        <v>25.81809997558594</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>0.02000738494098186</v>
+        <v>25.34883689880371</v>
       </c>
       <c r="B870" t="n">
-        <v>0.02140273898839951</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>0.02000901103019714</v>
+        <v>25.37330436706543</v>
       </c>
       <c r="B871" t="n">
-        <v>0.02142048813402653</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>0.02000994421541691</v>
+        <v>25.38401222229004</v>
       </c>
       <c r="B872" t="n">
-        <v>0.02143248729407787</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>0.02001049369573593</v>
+        <v>25.39254379272461</v>
       </c>
       <c r="B873" t="n">
-        <v>0.02144015394151211</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>0.02001049369573593</v>
+        <v>25.39254188537598</v>
       </c>
       <c r="B874" t="n">
-        <v>0.02143332175910473</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>0.02001049369573593</v>
+        <v>25.39254188537598</v>
       </c>
       <c r="B875" t="n">
-        <v>0.02143540419638157</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>0.02007545344531536</v>
+        <v>25.41132736206055</v>
       </c>
       <c r="B876" t="n">
-        <v>0.02147132158279419</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>0.02007587440311909</v>
+        <v>25.41132164001465</v>
       </c>
       <c r="B877" t="n">
-        <v>0.0214497372508049</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>0.02007088996469975</v>
+        <v>25.35847282409668</v>
       </c>
       <c r="B878" t="n">
-        <v>0.02145139314234257</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>0.02008085511624813</v>
+        <v>25.3071174621582</v>
       </c>
       <c r="B879" t="n">
-        <v>0.02144832164049149</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>0.02006535977125168</v>
+        <v>25.25390434265137</v>
       </c>
       <c r="B880" t="n">
-        <v>0.02145482040941715</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>0.02006474882364273</v>
+        <v>25.26178932189941</v>
       </c>
       <c r="B881" t="n">
-        <v>0.02144590392708778</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>0.0200606994330883</v>
+        <v>25.23419570922852</v>
       </c>
       <c r="B882" t="n">
-        <v>0.02144090458750725</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>0.02011163160204887</v>
+        <v>25.3990421295166</v>
       </c>
       <c r="B883" t="n">
-        <v>0.02144030854105949</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>0.02011163160204887</v>
+        <v>25.3990421295166</v>
       </c>
       <c r="B884" t="n">
-        <v>0.02144314348697662</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>0.02011160179972649</v>
+        <v>25.3615550994873</v>
       </c>
       <c r="B885" t="n">
-        <v>0.02143555879592896</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>0.02011054195463657</v>
+        <v>25.34697723388672</v>
       </c>
       <c r="B886" t="n">
-        <v>0.02143939211964607</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>0.02014042437076569</v>
+        <v>25.38716316223145</v>
       </c>
       <c r="B887" t="n">
-        <v>0.02143897674977779</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>0.02015788294374943</v>
+        <v>25.07404136657715</v>
       </c>
       <c r="B888" t="n">
-        <v>0.02143889293074608</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>0.02002689614892006</v>
+        <v>24.93892669677734</v>
       </c>
       <c r="B889" t="n">
-        <v>0.02144755981862545</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>0.01980936899781227</v>
+        <v>24.48712158203125</v>
       </c>
       <c r="B890" t="n">
-        <v>0.02144230902194977</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>0.01996089145541191</v>
+        <v>23.68748664855957</v>
       </c>
       <c r="B891" t="n">
-        <v>0.02143522538244724</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>0.01901540718972683</v>
+        <v>23.36028480529785</v>
       </c>
       <c r="B892" t="n">
-        <v>0.02145614288747311</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>0.01901540718972683</v>
+        <v>23.36028480529785</v>
       </c>
       <c r="B893" t="n">
-        <v>0.0214531421661377</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>0.01901915110647678</v>
+        <v>23.35942459106445</v>
       </c>
       <c r="B894" t="n">
-        <v>0.02147014252841473</v>
+        <v>25.81760025024414</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>0.01901031844317913</v>
+        <v>23.38086891174316</v>
       </c>
       <c r="B895" t="n">
-        <v>0.02147072553634644</v>
+        <v>25.81710052490234</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>0.01900525391101837</v>
+        <v>23.37428283691406</v>
       </c>
       <c r="B896" t="n">
-        <v>0.01674810238182545</v>
+        <v>0.1848749965429306</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>0.01900525391101837</v>
+        <v>23.37428283691406</v>
       </c>
       <c r="B897" t="n">
-        <v>0.01674810238182545</v>
+        <v>25.10040092468262</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>0.01669440791010857</v>
+        <v>19.73991394042969</v>
       </c>
       <c r="B898" t="n">
-        <v>0.01511135697364807</v>
+        <v>0.1549070030450821</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>0.01735205389559269</v>
+        <v>4.458266735076904</v>
       </c>
       <c r="B899" t="n">
-        <v>0.01511135697364807</v>
+        <v>0.1549070030450821</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>0.01690476760268211</v>
+        <v>3.949911117553711</v>
       </c>
       <c r="B900" t="n">
-        <v>0.01473071798682213</v>
+        <v>0.1577149927616119</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>0.01576012931764126</v>
+        <v>7.806065082550049</v>
       </c>
       <c r="B901" t="n">
-        <v>0.0144722843542695</v>
+        <v>0.1705320030450821</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>0.01416638493537903</v>
+        <v>1.117781639099121</v>
       </c>
       <c r="B902" t="n">
-        <v>0.01431095134466887</v>
+        <v>26.95859909057617</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>0.01416084263473749</v>
+        <v>1.118635892868042</v>
       </c>
       <c r="B903" t="n">
-        <v>0.01420583762228489</v>
+        <v>0.2180940061807632</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>0.01412492245435715</v>
+        <v>1.118889927864075</v>
       </c>
       <c r="B904" t="n">
-        <v>0.01420583762228489</v>
+        <v>0.2180940061807632</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>0.01412854250520468</v>
+        <v>1.118679165840149</v>
       </c>
       <c r="B905" t="n">
-        <v>0.01409164536744356</v>
+        <v>0.157028004527092</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>0.01408452820032835</v>
+        <v>1.122324705123901</v>
       </c>
       <c r="B906" t="n">
-        <v>0.01401051133871078</v>
+        <v>0.1464229971170425</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>0.01408965140581131</v>
+        <v>1.121571898460388</v>
       </c>
       <c r="B907" t="n">
-        <v>0.01401051133871078</v>
+        <v>26.99790000915527</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>0.01413098722696304</v>
+        <v>1.123989701271057</v>
       </c>
       <c r="B908" t="n">
-        <v>0.01396343018859625</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>0.01419127825647593</v>
+        <v>0.9615179896354675</v>
       </c>
       <c r="B909" t="n">
-        <v>0.01391036435961723</v>
+        <v>0.2189940065145493</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>0.01446216925978661</v>
+        <v>18.70536613464355</v>
       </c>
       <c r="B910" t="n">
-        <v>0.01391036435961723</v>
+        <v>25.09480094909668</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>0.01591629534959793</v>
+        <v>19.49900436401367</v>
       </c>
       <c r="B911" t="n">
-        <v>0.01391036435961723</v>
+        <v>25.09480094909668</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>0.01591629534959793</v>
+        <v>19.49900436401367</v>
       </c>
       <c r="B912" t="n">
-        <v>0.0138913094997406</v>
+        <v>0.2199860066175461</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>0.01533876731991768</v>
+        <v>2.107094526290894</v>
       </c>
       <c r="B913" t="n">
-        <v>0.0138913094997406</v>
+        <v>0.2199860066175461</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>0.01526139117777348</v>
+        <v>2.668612957000732</v>
       </c>
       <c r="B914" t="n">
-        <v>0.01386726927012205</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>0.01360190194100142</v>
+        <v>1.26410174369812</v>
       </c>
       <c r="B915" t="n">
-        <v>0.01383922249078751</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>0.01360190194100142</v>
+        <v>1.26410174369812</v>
       </c>
       <c r="B916" t="n">
-        <v>0.01383922249078751</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>0.01380293443799019</v>
+        <v>1.268909096717834</v>
       </c>
       <c r="B917" t="n">
-        <v>0.01382720191031694</v>
+        <v>25.09480094909668</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>0.01380083803087473</v>
+        <v>1.268411636352539</v>
       </c>
       <c r="B918" t="n">
-        <v>0.0138011584058404</v>
+        <v>0.1670529991388321</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>0.01380542293190956</v>
+        <v>1.268046736717224</v>
       </c>
       <c r="B919" t="n">
-        <v>0.0138011584058404</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>0.01381546165794134</v>
+        <v>1.268167018890381</v>
       </c>
       <c r="B920" t="n">
-        <v>0.01380010973662138</v>
+        <v>0.224151998758316</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>0.01380873937159777</v>
+        <v>1.268279552459717</v>
       </c>
       <c r="B921" t="n">
-        <v>0.01380010973662138</v>
+        <v>25.09530067443848</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>0.0138132106512785</v>
+        <v>1.267621755599976</v>
       </c>
       <c r="B922" t="n">
-        <v>0.0137860830873251</v>
+        <v>0.2239989936351776</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>0.0138132106512785</v>
+        <v>1.267621755599976</v>
       </c>
       <c r="B923" t="n">
-        <v>0.0137860830873251</v>
+        <v>25.09480094909668</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>0.0138147110119462</v>
+        <v>1.267347097396851</v>
       </c>
       <c r="B924" t="n">
-        <v>0.01378808729350567</v>
+        <v>0.1715240031480789</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>0.0138147110119462</v>
+        <v>1.267347097396851</v>
       </c>
       <c r="B925" t="n">
-        <v>0.01378808729350567</v>
+        <v>0.1715240031480789</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>0.01180550362914801</v>
+        <v>1.168244004249573</v>
       </c>
       <c r="B926" t="n">
-        <v>0.01378808729350567</v>
+        <v>26.95809936523438</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>0.01237727329134941</v>
+        <v>1.155026912689209</v>
       </c>
       <c r="B927" t="n">
-        <v>0.01377406064420938</v>
+        <v>0.2271880060434341</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>0.01339044794440269</v>
+        <v>1.17572808265686</v>
       </c>
       <c r="B928" t="n">
-        <v>0.01377406064420938</v>
+        <v>0.2271880060434341</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>0.01406369917094707</v>
+        <v>1.231467008590698</v>
       </c>
       <c r="B929" t="n">
-        <v>0.01377806812524796</v>
+        <v>25.09630012512207</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>0.01361517608165741</v>
+        <v>1.338283777236938</v>
       </c>
       <c r="B930" t="n">
-        <v>0.01376404147595167</v>
+        <v>0.1715999990701675</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>0.01486502401530743</v>
+        <v>1.213171124458313</v>
       </c>
       <c r="B931" t="n">
-        <v>0.01376404147595167</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>0.01486502401530743</v>
+        <v>1.213171124458313</v>
       </c>
       <c r="B932" t="n">
-        <v>0.01376404147595167</v>
+        <v>25.09580039978027</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>0.01479410473257303</v>
+        <v>1.190296053886414</v>
       </c>
       <c r="B933" t="n">
-        <v>0.01377005316317081</v>
+        <v>0.2239989936351776</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>0.01473885495215654</v>
+        <v>1.188307881355286</v>
       </c>
       <c r="B934" t="n">
-        <v>0.01376404147595167</v>
+        <v>0.223922997713089</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>0.01473885495215654</v>
+        <v>1.188307881355286</v>
       </c>
       <c r="B935" t="n">
-        <v>0.01376404147595167</v>
+        <v>0.223922997713089</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>0.01473885588347912</v>
+        <v>1.188308119773865</v>
       </c>
       <c r="B936" t="n">
-        <v>0.01376404147595167</v>
+        <v>25.09530067443848</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>0.01475042477250099</v>
+        <v>1.187933683395386</v>
       </c>
       <c r="B937" t="n">
-        <v>0.01376404147595167</v>
+        <v>25.09530067443848</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>0.01476179622113705</v>
+        <v>1.188674330711365</v>
       </c>
       <c r="B938" t="n">
-        <v>0.0137689970433712</v>
+        <v>0.2075500041246414</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>0.01476179622113705</v>
+        <v>1.188674330711365</v>
       </c>
       <c r="B939" t="n">
-        <v>0.0137689970433712</v>
+        <v>26.99480056762695</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>0.0147044537588954</v>
+        <v>1.182022094726562</v>
       </c>
       <c r="B940" t="n">
-        <v>0.0137689970433712</v>
+        <v>26.99480056762695</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>0.014699537307024</v>
+        <v>1.18481969833374</v>
       </c>
       <c r="B941" t="n">
-        <v>0.01375095918774605</v>
+        <v>26.99029922485352</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>0.0147172948345542</v>
+        <v>1.182405471801758</v>
       </c>
       <c r="B942" t="n">
-        <v>0.01373893395066261</v>
+        <v>0.225830003619194</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>0.01552936434745789</v>
+        <v>1.542864561080933</v>
       </c>
       <c r="B943" t="n">
-        <v>0.01373893395066261</v>
+        <v>0.2248380035161972</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>0.01552837248891592</v>
+        <v>1.488243103027344</v>
       </c>
       <c r="B944" t="n">
-        <v>0.01373893395066261</v>
+        <v>25.09530067443848</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>0.01556839980185032</v>
+        <v>1.110620021820068</v>
       </c>
       <c r="B945" t="n">
-        <v>0.01375992316752672</v>
+        <v>0.2254489958286285</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>0.01543072890490294</v>
+        <v>1.038236021995544</v>
       </c>
       <c r="B946" t="n">
-        <v>0.01375992316752672</v>
+        <v>26.98979949951172</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>0.01200106367468834</v>
+        <v>0.8979859352111816</v>
       </c>
       <c r="B947" t="n">
         <v>0.1000000014901161</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>